--- a/raw_data/20200818_saline/20200818_Sensor2_Test_43.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_43.xlsx
@@ -1,613 +1,1029 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1FA8A0-DC1A-48F4-AF24-349CC22336E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>38174.554238</v>
+        <v>38174.554237999997</v>
       </c>
       <c r="B2" s="1">
-        <v>10.604043</v>
+        <v>10.604043000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>1250.780000</v>
+        <v>1250.78</v>
       </c>
       <c r="D2" s="1">
-        <v>-283.540000</v>
+        <v>-283.54000000000002</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>38184.954353</v>
+        <v>38184.954353000001</v>
       </c>
       <c r="G2" s="1">
         <v>10.606932</v>
       </c>
       <c r="H2" s="1">
-        <v>1272.980000</v>
+        <v>1272.98</v>
       </c>
       <c r="I2" s="1">
-        <v>-246.982000</v>
+        <v>-246.982</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>38195.470562</v>
+        <v>38195.470562000002</v>
       </c>
       <c r="L2" s="1">
-        <v>10.609853</v>
+        <v>10.609852999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>1307.600000</v>
+        <v>1307.5999999999999</v>
       </c>
       <c r="N2" s="1">
-        <v>-194.695000</v>
+        <v>-194.69499999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>38205.957446</v>
       </c>
       <c r="Q2" s="1">
-        <v>10.612766</v>
+        <v>10.612766000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>1320.060000</v>
+        <v>1320.06</v>
       </c>
       <c r="S2" s="1">
-        <v>-179.561000</v>
+        <v>-179.56100000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>38216.546567</v>
+        <v>38216.546566999998</v>
       </c>
       <c r="V2" s="1">
         <v>10.615707</v>
       </c>
       <c r="W2" s="1">
-        <v>1334.460000</v>
+        <v>1334.46</v>
       </c>
       <c r="X2" s="1">
-        <v>-168.618000</v>
+        <v>-168.61799999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>38227.003690</v>
+        <v>38227.003689999998</v>
       </c>
       <c r="AA2" s="1">
-        <v>10.618612</v>
+        <v>10.618612000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>1353.380000</v>
+        <v>1353.38</v>
       </c>
       <c r="AC2" s="1">
-        <v>-168.466000</v>
+        <v>-168.46600000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>38237.575166</v>
+        <v>38237.575166000002</v>
       </c>
       <c r="AF2" s="1">
         <v>10.621549</v>
       </c>
       <c r="AG2" s="1">
-        <v>1367.280000</v>
+        <v>1367.28</v>
       </c>
       <c r="AH2" s="1">
-        <v>-178.861000</v>
+        <v>-178.86099999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>38248.330174</v>
+        <v>38248.330174000002</v>
       </c>
       <c r="AK2" s="1">
-        <v>10.624536</v>
+        <v>10.624536000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>1388.700000</v>
+        <v>1388.7</v>
       </c>
       <c r="AM2" s="1">
-        <v>-209.081000</v>
+        <v>-209.08099999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>38258.895951</v>
+        <v>38258.895950999999</v>
       </c>
       <c r="AP2" s="1">
         <v>10.627471</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1410.720000</v>
+        <v>1410.72</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.015000</v>
+        <v>-253.01499999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>38270.262272</v>
@@ -616,43 +1032,43 @@
         <v>10.630628</v>
       </c>
       <c r="AV2" s="1">
-        <v>1435.430000</v>
+        <v>1435.43</v>
       </c>
       <c r="AW2" s="1">
-        <v>-313.077000</v>
+        <v>-313.077</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>38281.377651</v>
+        <v>38281.377651000003</v>
       </c>
       <c r="AZ2" s="1">
         <v>10.633716</v>
       </c>
       <c r="BA2" s="1">
-        <v>1454.780000</v>
+        <v>1454.78</v>
       </c>
       <c r="BB2" s="1">
-        <v>-365.334000</v>
+        <v>-365.334</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>38292.362515</v>
+        <v>38292.362515000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>10.636767</v>
+        <v>10.636767000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1539.860000</v>
+        <v>1539.86</v>
       </c>
       <c r="BG2" s="1">
-        <v>-614.275000</v>
+        <v>-614.27499999999998</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>38303.974853</v>
@@ -661,255 +1077,255 @@
         <v>10.639993</v>
       </c>
       <c r="BK2" s="1">
-        <v>1693.330000</v>
+        <v>1693.33</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1061.380000</v>
+        <v>-1061.3800000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>38315.118343</v>
+        <v>38315.118343000002</v>
       </c>
       <c r="BO2" s="1">
-        <v>10.643088</v>
+        <v>10.643088000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1986.630000</v>
+        <v>1986.63</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1837.440000</v>
+        <v>-1837.44</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>38325.996230</v>
+        <v>38325.996229999997</v>
       </c>
       <c r="BT2" s="1">
-        <v>10.646110</v>
+        <v>10.64611</v>
       </c>
       <c r="BU2" s="1">
-        <v>2370.390000</v>
+        <v>2370.39</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2736.540000</v>
+        <v>-2736.54</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>38336.753464</v>
+        <v>38336.753464000001</v>
       </c>
       <c r="BY2" s="1">
         <v>10.649098</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2855.030000</v>
+        <v>2855.03</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3717.220000</v>
+        <v>-3717.22</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>38347.722985</v>
       </c>
       <c r="CD2" s="1">
-        <v>10.652145</v>
+        <v>10.652145000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>4272.530000</v>
+        <v>4272.53</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6082.760000</v>
+        <v>-6082.76</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>38174.945581</v>
       </c>
       <c r="B3" s="1">
-        <v>10.604152</v>
+        <v>10.604151999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>1250.710000</v>
+        <v>1250.71</v>
       </c>
       <c r="D3" s="1">
-        <v>-283.334000</v>
+        <v>-283.334</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>38185.360605</v>
+        <v>38185.360605000002</v>
       </c>
       <c r="G3" s="1">
-        <v>10.607045</v>
+        <v>10.607044999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>1273.470000</v>
+        <v>1273.47</v>
       </c>
       <c r="I3" s="1">
-        <v>-247.031000</v>
+        <v>-247.03100000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>38195.830662</v>
       </c>
       <c r="L3" s="1">
-        <v>10.609953</v>
+        <v>10.609953000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>1307.660000</v>
+        <v>1307.6600000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-195.074000</v>
+        <v>-195.07400000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>38206.343333</v>
+        <v>38206.343332999997</v>
       </c>
       <c r="Q3" s="1">
         <v>10.612873</v>
       </c>
       <c r="R3" s="1">
-        <v>1320.100000</v>
+        <v>1320.1</v>
       </c>
       <c r="S3" s="1">
-        <v>-179.633000</v>
+        <v>-179.63300000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>38216.928455</v>
+        <v>38216.928455000001</v>
       </c>
       <c r="V3" s="1">
-        <v>10.615813</v>
+        <v>10.615812999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>1334.430000</v>
+        <v>1334.43</v>
       </c>
       <c r="X3" s="1">
-        <v>-168.533000</v>
+        <v>-168.53299999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>38227.740744</v>
+        <v>38227.740744000002</v>
       </c>
       <c r="AA3" s="1">
         <v>10.618817</v>
       </c>
       <c r="AB3" s="1">
-        <v>1353.560000</v>
+        <v>1353.56</v>
       </c>
       <c r="AC3" s="1">
-        <v>-168.584000</v>
+        <v>-168.584</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>38238.299578</v>
+        <v>38238.299577999998</v>
       </c>
       <c r="AF3" s="1">
-        <v>10.621750</v>
+        <v>10.62175</v>
       </c>
       <c r="AG3" s="1">
-        <v>1367.240000</v>
+        <v>1367.24</v>
       </c>
       <c r="AH3" s="1">
-        <v>-178.807000</v>
+        <v>-178.80699999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>38248.716097</v>
+        <v>38248.716096999997</v>
       </c>
       <c r="AK3" s="1">
-        <v>10.624643</v>
+        <v>10.624643000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>1388.670000</v>
+        <v>1388.67</v>
       </c>
       <c r="AM3" s="1">
-        <v>-209.093000</v>
+        <v>-209.09299999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>38259.271950</v>
+        <v>38259.271950000002</v>
       </c>
       <c r="AP3" s="1">
-        <v>10.627576</v>
+        <v>10.627575999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1410.700000</v>
+        <v>1410.7</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.020000</v>
+        <v>-253.02</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>38270.630304</v>
+        <v>38270.630303999998</v>
       </c>
       <c r="AU3" s="1">
-        <v>10.630731</v>
+        <v>10.630731000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>1435.430000</v>
+        <v>1435.43</v>
       </c>
       <c r="AW3" s="1">
-        <v>-313.113000</v>
+        <v>-313.113</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>38282.056181</v>
       </c>
       <c r="AZ3" s="1">
-        <v>10.633904</v>
+        <v>10.633903999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1454.760000</v>
+        <v>1454.76</v>
       </c>
       <c r="BB3" s="1">
-        <v>-365.276000</v>
+        <v>-365.27600000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>38293.034630</v>
+        <v>38293.034630000002</v>
       </c>
       <c r="BE3" s="1">
-        <v>10.636954</v>
+        <v>10.636953999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1540.120000</v>
+        <v>1540.12</v>
       </c>
       <c r="BG3" s="1">
-        <v>-614.415000</v>
+        <v>-614.41499999999996</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>38304.421252</v>
@@ -918,195 +1334,195 @@
         <v>10.640117</v>
       </c>
       <c r="BK3" s="1">
-        <v>1693.320000</v>
+        <v>1693.32</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1061.390000</v>
+        <v>-1061.3900000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>38315.241972</v>
+        <v>38315.241972000003</v>
       </c>
       <c r="BO3" s="1">
-        <v>10.643123</v>
+        <v>10.643122999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1986.530000</v>
+        <v>1986.53</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1837.560000</v>
+        <v>-1837.56</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>38326.502645</v>
       </c>
       <c r="BT3" s="1">
-        <v>10.646251</v>
+        <v>10.646250999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>2370.190000</v>
+        <v>2370.19</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2736.690000</v>
+        <v>-2736.69</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>38337.226648</v>
+        <v>38337.226648000003</v>
       </c>
       <c r="BY3" s="1">
-        <v>10.649230</v>
+        <v>10.649229999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2855.830000</v>
+        <v>2855.83</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3718.270000</v>
+        <v>-3718.27</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>38348.287968</v>
+        <v>38348.287967999997</v>
       </c>
       <c r="CD3" s="1">
-        <v>10.652302</v>
+        <v>10.652302000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>4276.380000</v>
+        <v>4276.38</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6082.310000</v>
+        <v>-6082.31</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>38175.296289</v>
+        <v>38175.296288999998</v>
       </c>
       <c r="B4" s="1">
-        <v>10.604249</v>
+        <v>10.604248999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>1250.850000</v>
+        <v>1250.8499999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-283.091000</v>
+        <v>-283.09100000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>38185.704305</v>
+        <v>38185.704304999999</v>
       </c>
       <c r="G4" s="1">
-        <v>10.607140</v>
+        <v>10.607139999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>1273.360000</v>
+        <v>1273.3599999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>-247.514000</v>
+        <v>-247.51400000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>38196.177329</v>
+        <v>38196.177328999998</v>
       </c>
       <c r="L4" s="1">
         <v>10.610049</v>
       </c>
       <c r="M4" s="1">
-        <v>1307.750000</v>
+        <v>1307.75</v>
       </c>
       <c r="N4" s="1">
-        <v>-195.130000</v>
+        <v>-195.13</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>38206.692057</v>
       </c>
       <c r="Q4" s="1">
-        <v>10.612970</v>
+        <v>10.612970000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>1320.070000</v>
+        <v>1320.07</v>
       </c>
       <c r="S4" s="1">
-        <v>-179.626000</v>
+        <v>-179.626</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>38217.614951</v>
+        <v>38217.614951000003</v>
       </c>
       <c r="V4" s="1">
         <v>10.616004</v>
       </c>
       <c r="W4" s="1">
-        <v>1334.530000</v>
+        <v>1334.53</v>
       </c>
       <c r="X4" s="1">
-        <v>-168.664000</v>
+        <v>-168.66399999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>38228.085959</v>
+        <v>38228.085959000004</v>
       </c>
       <c r="AA4" s="1">
-        <v>10.618913</v>
+        <v>10.618912999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>1353.370000</v>
+        <v>1353.37</v>
       </c>
       <c r="AC4" s="1">
-        <v>-168.310000</v>
+        <v>-168.31</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>38238.644826</v>
+        <v>38238.644826000003</v>
       </c>
       <c r="AF4" s="1">
         <v>10.621846</v>
       </c>
       <c r="AG4" s="1">
-        <v>1367.280000</v>
+        <v>1367.28</v>
       </c>
       <c r="AH4" s="1">
-        <v>-178.842000</v>
+        <v>-178.84200000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>38249.060812</v>
+        <v>38249.060812000003</v>
       </c>
       <c r="AK4" s="1">
         <v>10.624739</v>
       </c>
       <c r="AL4" s="1">
-        <v>1388.680000</v>
+        <v>1388.68</v>
       </c>
       <c r="AM4" s="1">
-        <v>-209.060000</v>
+        <v>-209.06</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>38259.635983</v>
@@ -1115,679 +1531,679 @@
         <v>10.627677</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1410.710000</v>
+        <v>1410.71</v>
       </c>
       <c r="AR4" s="1">
-        <v>-252.999000</v>
+        <v>-252.999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>38271.307377</v>
+        <v>38271.307376999997</v>
       </c>
       <c r="AU4" s="1">
         <v>10.630919</v>
       </c>
       <c r="AV4" s="1">
-        <v>1435.420000</v>
+        <v>1435.42</v>
       </c>
       <c r="AW4" s="1">
-        <v>-313.078000</v>
+        <v>-313.07799999999997</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>38282.461410</v>
+        <v>38282.461410000004</v>
       </c>
       <c r="AZ4" s="1">
         <v>10.634017</v>
       </c>
       <c r="BA4" s="1">
-        <v>1454.790000</v>
+        <v>1454.79</v>
       </c>
       <c r="BB4" s="1">
-        <v>-365.287000</v>
+        <v>-365.28699999999998</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>38293.700225</v>
+        <v>38293.700225000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>10.637139</v>
+        <v>10.637138999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1539.840000</v>
+        <v>1539.84</v>
       </c>
       <c r="BG4" s="1">
-        <v>-614.222000</v>
+        <v>-614.22199999999998</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>38304.821026</v>
+        <v>38304.821025999998</v>
       </c>
       <c r="BJ4" s="1">
         <v>10.640228</v>
       </c>
       <c r="BK4" s="1">
-        <v>1693.390000</v>
+        <v>1693.39</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1061.430000</v>
+        <v>-1061.43</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>38315.661589</v>
+        <v>38315.661589000003</v>
       </c>
       <c r="BO4" s="1">
-        <v>10.643239</v>
+        <v>10.643238999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1986.200000</v>
+        <v>1986.2</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1837.720000</v>
+        <v>-1837.72</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>38326.938663</v>
+        <v>38326.938663000001</v>
       </c>
       <c r="BT4" s="1">
         <v>10.646372</v>
       </c>
       <c r="BU4" s="1">
-        <v>2370.420000</v>
+        <v>2370.42</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2736.520000</v>
+        <v>-2736.52</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>38337.658168</v>
+        <v>38337.658168000002</v>
       </c>
       <c r="BY4" s="1">
-        <v>10.649349</v>
+        <v>10.649349000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2855.690000</v>
+        <v>2855.69</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3717.850000</v>
+        <v>-3717.85</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>38348.805752</v>
       </c>
       <c r="CD4" s="1">
-        <v>10.652446</v>
+        <v>10.652445999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>4265.470000</v>
+        <v>4265.47</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6093.200000</v>
+        <v>-6093.2</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>38175.638493</v>
+        <v>38175.638492999999</v>
       </c>
       <c r="B5" s="1">
-        <v>10.604344</v>
+        <v>10.604343999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>1251.290000</v>
+        <v>1251.29</v>
       </c>
       <c r="D5" s="1">
-        <v>-282.887000</v>
+        <v>-282.887</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>38186.048032</v>
+        <v>38186.048031999999</v>
       </c>
       <c r="G5" s="1">
         <v>10.607236</v>
       </c>
       <c r="H5" s="1">
-        <v>1273.520000</v>
+        <v>1273.52</v>
       </c>
       <c r="I5" s="1">
-        <v>-247.336000</v>
+        <v>-247.33600000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>38196.867762</v>
+        <v>38196.867762000002</v>
       </c>
       <c r="L5" s="1">
         <v>10.610241</v>
       </c>
       <c r="M5" s="1">
-        <v>1307.410000</v>
+        <v>1307.4100000000001</v>
       </c>
       <c r="N5" s="1">
-        <v>-195.340000</v>
+        <v>-195.34</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>38207.391379</v>
+        <v>38207.391379000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>10.613164</v>
+        <v>10.613163999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>1320.020000</v>
+        <v>1320.02</v>
       </c>
       <c r="S5" s="1">
-        <v>-179.713000</v>
+        <v>-179.71299999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>38217.958182</v>
+        <v>38217.958182000002</v>
       </c>
       <c r="V5" s="1">
         <v>10.616099</v>
       </c>
       <c r="W5" s="1">
-        <v>1334.420000</v>
+        <v>1334.42</v>
       </c>
       <c r="X5" s="1">
-        <v>-168.704000</v>
+        <v>-168.70400000000001</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>38228.434648</v>
+        <v>38228.434648000002</v>
       </c>
       <c r="AA5" s="1">
-        <v>10.619010</v>
+        <v>10.619009999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>1353.510000</v>
+        <v>1353.51</v>
       </c>
       <c r="AC5" s="1">
-        <v>-168.681000</v>
+        <v>-168.68100000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>38238.988026</v>
+        <v>38238.988025999999</v>
       </c>
       <c r="AF5" s="1">
         <v>10.621941</v>
       </c>
       <c r="AG5" s="1">
-        <v>1367.270000</v>
+        <v>1367.27</v>
       </c>
       <c r="AH5" s="1">
-        <v>-178.804000</v>
+        <v>-178.804</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>38249.711035</v>
       </c>
       <c r="AK5" s="1">
-        <v>10.624920</v>
+        <v>10.624919999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>1388.700000</v>
+        <v>1388.7</v>
       </c>
       <c r="AM5" s="1">
-        <v>-209.050000</v>
+        <v>-209.05</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>38260.298141</v>
+        <v>38260.298140999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>10.627861</v>
+        <v>10.627860999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1410.720000</v>
+        <v>1410.72</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.003000</v>
+        <v>-253.00299999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>38271.742829</v>
+        <v>38271.742829000003</v>
       </c>
       <c r="AU5" s="1">
-        <v>10.631040</v>
+        <v>10.63104</v>
       </c>
       <c r="AV5" s="1">
-        <v>1435.420000</v>
+        <v>1435.42</v>
       </c>
       <c r="AW5" s="1">
-        <v>-313.112000</v>
+        <v>-313.11200000000002</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>38282.848255</v>
+        <v>38282.848254999997</v>
       </c>
       <c r="AZ5" s="1">
-        <v>10.634125</v>
+        <v>10.634124999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1454.830000</v>
+        <v>1454.83</v>
       </c>
       <c r="BB5" s="1">
-        <v>-365.291000</v>
+        <v>-365.291</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>38294.079168</v>
+        <v>38294.079167999997</v>
       </c>
       <c r="BE5" s="1">
-        <v>10.637244</v>
+        <v>10.637244000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1539.830000</v>
+        <v>1539.83</v>
       </c>
       <c r="BG5" s="1">
-        <v>-614.261000</v>
+        <v>-614.26099999999997</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>38305.195048</v>
+        <v>38305.195048000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>10.640332</v>
+        <v>10.640332000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1693.390000</v>
+        <v>1693.39</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1061.340000</v>
+        <v>-1061.3399999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>38316.076243</v>
+        <v>38316.076243000003</v>
       </c>
       <c r="BO5" s="1">
         <v>10.643355</v>
       </c>
       <c r="BP5" s="1">
-        <v>1986.390000</v>
+        <v>1986.39</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1837.770000</v>
+        <v>-1837.77</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>38327.363738</v>
       </c>
       <c r="BT5" s="1">
-        <v>10.646490</v>
+        <v>10.64649</v>
       </c>
       <c r="BU5" s="1">
-        <v>2370.140000</v>
+        <v>2370.14</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2736.640000</v>
+        <v>-2736.64</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>38338.081282</v>
+        <v>38338.081281999999</v>
       </c>
       <c r="BY5" s="1">
         <v>10.649467</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2855.000000</v>
+        <v>2855</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3718.040000</v>
+        <v>-3718.04</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>38349.327047</v>
+        <v>38349.327046999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>10.652591</v>
+        <v>10.652590999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>4288.900000</v>
+        <v>4288.8999999999996</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6094.220000</v>
+        <v>-6094.22</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>38176.320524</v>
+        <v>38176.320524000002</v>
       </c>
       <c r="B6" s="1">
         <v>10.604533</v>
       </c>
       <c r="C6" s="1">
-        <v>1251.140000</v>
+        <v>1251.1400000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>-282.794000</v>
+        <v>-282.79399999999998</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>38186.737998</v>
+        <v>38186.737997999997</v>
       </c>
       <c r="G6" s="1">
-        <v>10.607427</v>
+        <v>10.607426999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>1273.540000</v>
+        <v>1273.54</v>
       </c>
       <c r="I6" s="1">
-        <v>-246.427000</v>
+        <v>-246.42699999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>38197.212976</v>
+        <v>38197.212976000003</v>
       </c>
       <c r="L6" s="1">
-        <v>10.610337</v>
+        <v>10.610336999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>1307.580000</v>
+        <v>1307.58</v>
       </c>
       <c r="N6" s="1">
-        <v>-195.552000</v>
+        <v>-195.55199999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>38207.736595</v>
+        <v>38207.736595000002</v>
       </c>
       <c r="Q6" s="1">
-        <v>10.613260</v>
+        <v>10.61326</v>
       </c>
       <c r="R6" s="1">
-        <v>1320.010000</v>
+        <v>1320.01</v>
       </c>
       <c r="S6" s="1">
-        <v>-179.631000</v>
+        <v>-179.631</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>38218.301382</v>
+        <v>38218.301381999998</v>
       </c>
       <c r="V6" s="1">
-        <v>10.616195</v>
+        <v>10.616194999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>1334.510000</v>
+        <v>1334.51</v>
       </c>
       <c r="X6" s="1">
-        <v>-168.664000</v>
+        <v>-168.66399999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>38229.092626</v>
+        <v>38229.092625999998</v>
       </c>
       <c r="AA6" s="1">
         <v>10.619192</v>
       </c>
       <c r="AB6" s="1">
-        <v>1353.600000</v>
+        <v>1353.6</v>
       </c>
       <c r="AC6" s="1">
-        <v>-168.599000</v>
+        <v>-168.59899999999999</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>38239.635801</v>
+        <v>38239.635800999997</v>
       </c>
       <c r="AF6" s="1">
         <v>10.622121</v>
       </c>
       <c r="AG6" s="1">
-        <v>1367.280000</v>
+        <v>1367.28</v>
       </c>
       <c r="AH6" s="1">
-        <v>-178.842000</v>
+        <v>-178.84200000000001</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>38250.109818</v>
+        <v>38250.109817999997</v>
       </c>
       <c r="AK6" s="1">
         <v>10.625031</v>
       </c>
       <c r="AL6" s="1">
-        <v>1388.660000</v>
+        <v>1388.66</v>
       </c>
       <c r="AM6" s="1">
-        <v>-209.046000</v>
+        <v>-209.04599999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>38260.742557</v>
+        <v>38260.742556999998</v>
       </c>
       <c r="AP6" s="1">
         <v>10.627984</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1410.720000</v>
+        <v>1410.72</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.016000</v>
+        <v>-253.01599999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>38272.107390</v>
+        <v>38272.107389999997</v>
       </c>
       <c r="AU6" s="1">
         <v>10.631141</v>
       </c>
       <c r="AV6" s="1">
-        <v>1435.440000</v>
+        <v>1435.44</v>
       </c>
       <c r="AW6" s="1">
-        <v>-313.116000</v>
+        <v>-313.11599999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>38283.227199</v>
+        <v>38283.227199000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>10.634230</v>
+        <v>10.634230000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1454.790000</v>
+        <v>1454.79</v>
       </c>
       <c r="BB6" s="1">
-        <v>-365.305000</v>
+        <v>-365.30500000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>38294.466545</v>
+        <v>38294.466545000003</v>
       </c>
       <c r="BE6" s="1">
         <v>10.637352</v>
       </c>
       <c r="BF6" s="1">
-        <v>1539.800000</v>
+        <v>1539.8</v>
       </c>
       <c r="BG6" s="1">
-        <v>-614.272000</v>
+        <v>-614.27200000000005</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>38305.613138</v>
+        <v>38305.613138000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>10.640448</v>
+        <v>10.640447999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1693.350000</v>
+        <v>1693.35</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1061.470000</v>
+        <v>-1061.47</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>38316.482499</v>
+        <v>38316.482498999998</v>
       </c>
       <c r="BO6" s="1">
-        <v>10.643467</v>
+        <v>10.643466999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1986.410000</v>
+        <v>1986.41</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1837.590000</v>
+        <v>-1837.59</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>38327.780341</v>
+        <v>38327.780340999998</v>
       </c>
       <c r="BT6" s="1">
         <v>10.646606</v>
       </c>
       <c r="BU6" s="1">
-        <v>2370.010000</v>
+        <v>2370.0100000000002</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2736.330000</v>
+        <v>-2736.33</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>38338.501898</v>
+        <v>38338.501898000002</v>
       </c>
       <c r="BY6" s="1">
-        <v>10.649584</v>
+        <v>10.649584000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2855.450000</v>
+        <v>2855.45</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3718.270000</v>
+        <v>-3718.27</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>38349.863223</v>
       </c>
       <c r="CD6" s="1">
-        <v>10.652740</v>
+        <v>10.65274</v>
       </c>
       <c r="CE6" s="1">
-        <v>4271.330000</v>
+        <v>4271.33</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6083.880000</v>
+        <v>-6083.88</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>38176.667707</v>
+        <v>38176.667707000001</v>
       </c>
       <c r="B7" s="1">
-        <v>10.604630</v>
+        <v>10.60463</v>
       </c>
       <c r="C7" s="1">
-        <v>1251.260000</v>
+        <v>1251.26</v>
       </c>
       <c r="D7" s="1">
-        <v>-282.960000</v>
+        <v>-282.95999999999998</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>38187.083679</v>
+        <v>38187.083679000003</v>
       </c>
       <c r="G7" s="1">
         <v>10.607523</v>
       </c>
       <c r="H7" s="1">
-        <v>1273.360000</v>
+        <v>1273.3599999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>-246.357000</v>
+        <v>-246.357</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>38197.560672</v>
@@ -1796,88 +2212,88 @@
         <v>10.610434</v>
       </c>
       <c r="M7" s="1">
-        <v>1307.300000</v>
+        <v>1307.3</v>
       </c>
       <c r="N7" s="1">
-        <v>-195.342000</v>
+        <v>-195.34200000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>38208.392801</v>
+        <v>38208.392801000002</v>
       </c>
       <c r="Q7" s="1">
-        <v>10.613442</v>
+        <v>10.613441999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1320.080000</v>
+        <v>1320.08</v>
       </c>
       <c r="S7" s="1">
-        <v>-179.616000</v>
+        <v>-179.61600000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>38218.950644</v>
+        <v>38218.950643999997</v>
       </c>
       <c r="V7" s="1">
         <v>10.616375</v>
       </c>
       <c r="W7" s="1">
-        <v>1334.430000</v>
+        <v>1334.43</v>
       </c>
       <c r="X7" s="1">
-        <v>-168.907000</v>
+        <v>-168.90700000000001</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>38229.481238</v>
       </c>
       <c r="AA7" s="1">
-        <v>10.619300</v>
+        <v>10.619300000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1353.530000</v>
+        <v>1353.53</v>
       </c>
       <c r="AC7" s="1">
-        <v>-168.574000</v>
+        <v>-168.57400000000001</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>38240.016232</v>
+        <v>38240.016232000002</v>
       </c>
       <c r="AF7" s="1">
-        <v>10.622227</v>
+        <v>10.622227000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>1367.320000</v>
+        <v>1367.32</v>
       </c>
       <c r="AH7" s="1">
-        <v>-178.848000</v>
+        <v>-178.84800000000001</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>38250.456027</v>
       </c>
       <c r="AK7" s="1">
-        <v>10.625127</v>
+        <v>10.625127000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>1388.660000</v>
+        <v>1388.66</v>
       </c>
       <c r="AM7" s="1">
-        <v>-209.022000</v>
+        <v>-209.02199999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>38261.108108</v>
@@ -1886,13 +2302,13 @@
         <v>10.628086</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1410.720000</v>
+        <v>1410.72</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.002000</v>
+        <v>-253.00200000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>38272.472941</v>
@@ -1901,1116 +2317,1116 @@
         <v>10.631242</v>
       </c>
       <c r="AV7" s="1">
-        <v>1435.440000</v>
+        <v>1435.44</v>
       </c>
       <c r="AW7" s="1">
-        <v>-313.078000</v>
+        <v>-313.07799999999997</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>38283.642848</v>
+        <v>38283.642848000003</v>
       </c>
       <c r="AZ7" s="1">
         <v>10.634345</v>
       </c>
       <c r="BA7" s="1">
-        <v>1454.810000</v>
+        <v>1454.81</v>
       </c>
       <c r="BB7" s="1">
-        <v>-365.292000</v>
+        <v>-365.29199999999997</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>38294.894593</v>
+        <v>38294.894592999997</v>
       </c>
       <c r="BE7" s="1">
         <v>10.637471</v>
       </c>
       <c r="BF7" s="1">
-        <v>1539.810000</v>
+        <v>1539.81</v>
       </c>
       <c r="BG7" s="1">
-        <v>-614.234000</v>
+        <v>-614.23400000000004</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>38305.956383</v>
+        <v>38305.956382999997</v>
       </c>
       <c r="BJ7" s="1">
-        <v>10.640543</v>
+        <v>10.640542999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1693.390000</v>
+        <v>1693.39</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1061.320000</v>
+        <v>-1061.32</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>38316.881778</v>
+        <v>38316.881778000003</v>
       </c>
       <c r="BO7" s="1">
         <v>10.643578</v>
       </c>
       <c r="BP7" s="1">
-        <v>1986.230000</v>
+        <v>1986.23</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1837.440000</v>
+        <v>-1837.44</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>38328.208916</v>
+        <v>38328.208916000003</v>
       </c>
       <c r="BT7" s="1">
         <v>10.646725</v>
       </c>
       <c r="BU7" s="1">
-        <v>2369.730000</v>
+        <v>2369.73</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2736.470000</v>
+        <v>-2736.47</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>38338.928457</v>
+        <v>38338.928457000002</v>
       </c>
       <c r="BY7" s="1">
         <v>10.649702</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2855.740000</v>
+        <v>2855.74</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3717.510000</v>
+        <v>-3717.51</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>38350.476808</v>
+        <v>38350.476807999999</v>
       </c>
       <c r="CD7" s="1">
-        <v>10.652910</v>
+        <v>10.65291</v>
       </c>
       <c r="CE7" s="1">
-        <v>4287.400000</v>
+        <v>4287.3999999999996</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6094.390000</v>
+        <v>-6094.39</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>38177.011915</v>
+        <v>38177.011915000003</v>
       </c>
       <c r="B8" s="1">
-        <v>10.604726</v>
+        <v>10.604725999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>1250.930000</v>
+        <v>1250.93</v>
       </c>
       <c r="D8" s="1">
-        <v>-282.777000</v>
+        <v>-282.77699999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>38187.427902</v>
+        <v>38187.427902000003</v>
       </c>
       <c r="G8" s="1">
         <v>10.607619</v>
       </c>
       <c r="H8" s="1">
-        <v>1274.320000</v>
+        <v>1274.32</v>
       </c>
       <c r="I8" s="1">
-        <v>-246.624000</v>
+        <v>-246.624</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>38198.225348</v>
       </c>
       <c r="L8" s="1">
-        <v>10.610618</v>
+        <v>10.610618000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>1307.390000</v>
+        <v>1307.3900000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-195.274000</v>
+        <v>-195.274</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>38208.783649</v>
+        <v>38208.783648999997</v>
       </c>
       <c r="Q8" s="1">
-        <v>10.613551</v>
+        <v>10.613550999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>1320.130000</v>
+        <v>1320.13</v>
       </c>
       <c r="S8" s="1">
-        <v>-179.592000</v>
+        <v>-179.59200000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>38219.333100</v>
+        <v>38219.333100000003</v>
       </c>
       <c r="V8" s="1">
         <v>10.616481</v>
       </c>
       <c r="W8" s="1">
-        <v>1334.530000</v>
+        <v>1334.53</v>
       </c>
       <c r="X8" s="1">
-        <v>-168.877000</v>
+        <v>-168.87700000000001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>38229.828933</v>
+        <v>38229.828932999997</v>
       </c>
       <c r="AA8" s="1">
-        <v>10.619397</v>
+        <v>10.619396999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>1353.510000</v>
+        <v>1353.51</v>
       </c>
       <c r="AC8" s="1">
-        <v>-168.461000</v>
+        <v>-168.46100000000001</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>38240.361943</v>
+        <v>38240.361943000004</v>
       </c>
       <c r="AF8" s="1">
         <v>10.622323</v>
       </c>
       <c r="AG8" s="1">
-        <v>1367.270000</v>
+        <v>1367.27</v>
       </c>
       <c r="AH8" s="1">
-        <v>-178.871000</v>
+        <v>-178.87100000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>38250.805209</v>
+        <v>38250.805208999998</v>
       </c>
       <c r="AK8" s="1">
-        <v>10.625224</v>
+        <v>10.625223999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>1388.680000</v>
+        <v>1388.68</v>
       </c>
       <c r="AM8" s="1">
-        <v>-209.028000</v>
+        <v>-209.02799999999999</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>38261.468701</v>
+        <v>38261.468700999998</v>
       </c>
       <c r="AP8" s="1">
-        <v>10.628186</v>
+        <v>10.628185999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1410.710000</v>
+        <v>1410.71</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.018000</v>
+        <v>-253.018</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>38272.888731</v>
+        <v>38272.888730999999</v>
       </c>
       <c r="AU8" s="1">
-        <v>10.631358</v>
+        <v>10.631358000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1435.430000</v>
+        <v>1435.43</v>
       </c>
       <c r="AW8" s="1">
-        <v>-313.062000</v>
+        <v>-313.06200000000001</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>38283.944414</v>
+        <v>38283.944413999998</v>
       </c>
       <c r="AZ8" s="1">
-        <v>10.634429</v>
+        <v>10.634429000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1454.800000</v>
+        <v>1454.8</v>
       </c>
       <c r="BB8" s="1">
-        <v>-365.264000</v>
+        <v>-365.26400000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>38295.223935</v>
+        <v>38295.223935000002</v>
       </c>
       <c r="BE8" s="1">
-        <v>10.637562</v>
+        <v>10.637562000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1539.830000</v>
+        <v>1539.83</v>
       </c>
       <c r="BG8" s="1">
-        <v>-614.298000</v>
+        <v>-614.298</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>38306.345264</v>
+        <v>38306.345264000003</v>
       </c>
       <c r="BJ8" s="1">
         <v>10.640651</v>
       </c>
       <c r="BK8" s="1">
-        <v>1693.340000</v>
+        <v>1693.34</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1061.380000</v>
+        <v>-1061.3800000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>38317.303345</v>
       </c>
       <c r="BO8" s="1">
-        <v>10.643695</v>
+        <v>10.643694999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1986.250000</v>
+        <v>1986.25</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1837.520000</v>
+        <v>-1837.52</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>38328.617587</v>
+        <v>38328.617587000001</v>
       </c>
       <c r="BT8" s="1">
-        <v>10.646838</v>
+        <v>10.646838000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>2369.950000</v>
+        <v>2369.9499999999998</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2736.390000</v>
+        <v>-2736.39</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>38339.346549</v>
+        <v>38339.346549000002</v>
       </c>
       <c r="BY8" s="1">
         <v>10.649818</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2855.320000</v>
+        <v>2855.32</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3717.190000</v>
+        <v>-3717.19</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>38350.942021</v>
+        <v>38350.942021000003</v>
       </c>
       <c r="CD8" s="1">
         <v>10.653039</v>
       </c>
       <c r="CE8" s="1">
-        <v>4290.220000</v>
+        <v>4290.22</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6088.530000</v>
+        <v>-6088.53</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>38177.673083</v>
+        <v>38177.673083000001</v>
       </c>
       <c r="B9" s="1">
-        <v>10.604909</v>
+        <v>10.604908999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>1250.500000</v>
+        <v>1250.5</v>
       </c>
       <c r="D9" s="1">
-        <v>-283.167000</v>
+        <v>-283.16699999999997</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>38188.081628</v>
       </c>
       <c r="G9" s="1">
-        <v>10.607800</v>
+        <v>10.607799999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>1272.770000</v>
+        <v>1272.77</v>
       </c>
       <c r="I9" s="1">
-        <v>-246.160000</v>
+        <v>-246.16</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>38198.595514</v>
+        <v>38198.595514000001</v>
       </c>
       <c r="L9" s="1">
         <v>10.610721</v>
       </c>
       <c r="M9" s="1">
-        <v>1307.490000</v>
+        <v>1307.49</v>
       </c>
       <c r="N9" s="1">
-        <v>-194.448000</v>
+        <v>-194.44800000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>38209.131842</v>
+        <v>38209.131842000003</v>
       </c>
       <c r="Q9" s="1">
         <v>10.613648</v>
       </c>
       <c r="R9" s="1">
-        <v>1320.120000</v>
+        <v>1320.12</v>
       </c>
       <c r="S9" s="1">
-        <v>-179.645000</v>
+        <v>-179.64500000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>38219.674306</v>
+        <v>38219.674306000001</v>
       </c>
       <c r="V9" s="1">
         <v>10.616576</v>
       </c>
       <c r="W9" s="1">
-        <v>1334.560000</v>
+        <v>1334.56</v>
       </c>
       <c r="X9" s="1">
-        <v>-168.786000</v>
+        <v>-168.786</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>38230.179605</v>
+        <v>38230.179604999998</v>
       </c>
       <c r="AA9" s="1">
         <v>10.619494</v>
       </c>
       <c r="AB9" s="1">
-        <v>1353.350000</v>
+        <v>1353.35</v>
       </c>
       <c r="AC9" s="1">
-        <v>-168.308000</v>
+        <v>-168.30799999999999</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>38240.708151</v>
+        <v>38240.708150999999</v>
       </c>
       <c r="AF9" s="1">
-        <v>10.622419</v>
+        <v>10.622419000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>1367.310000</v>
+        <v>1367.31</v>
       </c>
       <c r="AH9" s="1">
-        <v>-178.938000</v>
+        <v>-178.93799999999999</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>38251.230817</v>
+        <v>38251.230817000003</v>
       </c>
       <c r="AK9" s="1">
         <v>10.625342</v>
       </c>
       <c r="AL9" s="1">
-        <v>1388.680000</v>
+        <v>1388.68</v>
       </c>
       <c r="AM9" s="1">
-        <v>-209.070000</v>
+        <v>-209.07</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>38262.190380</v>
+        <v>38262.19038</v>
       </c>
       <c r="AP9" s="1">
-        <v>10.628386</v>
+        <v>10.628386000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1410.650000</v>
+        <v>1410.65</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.021000</v>
+        <v>-253.02099999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>38273.205539</v>
+        <v>38273.205539000002</v>
       </c>
       <c r="AU9" s="1">
         <v>10.631446</v>
       </c>
       <c r="AV9" s="1">
-        <v>1435.460000</v>
+        <v>1435.46</v>
       </c>
       <c r="AW9" s="1">
-        <v>-313.086000</v>
+        <v>-313.08600000000001</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>38284.304509</v>
+        <v>38284.304509000001</v>
       </c>
       <c r="AZ9" s="1">
-        <v>10.634529</v>
+        <v>10.634529000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1454.780000</v>
+        <v>1454.78</v>
       </c>
       <c r="BB9" s="1">
-        <v>-365.272000</v>
+        <v>-365.27199999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>38295.582544</v>
+        <v>38295.582543999997</v>
       </c>
       <c r="BE9" s="1">
-        <v>10.637662</v>
+        <v>10.637662000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1539.840000</v>
+        <v>1539.84</v>
       </c>
       <c r="BG9" s="1">
-        <v>-614.205000</v>
+        <v>-614.20500000000004</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>38306.721725</v>
+        <v>38306.721725000003</v>
       </c>
       <c r="BJ9" s="1">
         <v>10.640756</v>
       </c>
       <c r="BK9" s="1">
-        <v>1693.320000</v>
+        <v>1693.32</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1061.330000</v>
+        <v>-1061.33</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>38317.718994</v>
+        <v>38317.718994000003</v>
       </c>
       <c r="BO9" s="1">
-        <v>10.643811</v>
+        <v>10.643810999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1986.200000</v>
+        <v>1986.2</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1837.690000</v>
+        <v>-1837.69</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>38329.053107</v>
       </c>
       <c r="BT9" s="1">
-        <v>10.646959</v>
+        <v>10.646959000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>2369.580000</v>
+        <v>2369.58</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2736.390000</v>
+        <v>-2736.39</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>38339.789972</v>
+        <v>38339.789971999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>10.649942</v>
+        <v>10.649941999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2854.500000</v>
+        <v>2854.5</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3717.660000</v>
+        <v>-3717.66</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>38351.458388</v>
+        <v>38351.458387999999</v>
       </c>
       <c r="CD9" s="1">
         <v>10.653183</v>
       </c>
       <c r="CE9" s="1">
-        <v>4274.380000</v>
+        <v>4274.38</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6080.430000</v>
+        <v>-6080.43</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>38178.034170</v>
+        <v>38178.034169999999</v>
       </c>
       <c r="B10" s="1">
-        <v>10.605009</v>
+        <v>10.605009000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1250.530000</v>
+        <v>1250.53</v>
       </c>
       <c r="D10" s="1">
-        <v>-282.812000</v>
+        <v>-282.81200000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>38188.466028</v>
+        <v>38188.466028000003</v>
       </c>
       <c r="G10" s="1">
-        <v>10.607907</v>
+        <v>10.607907000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>1273.990000</v>
+        <v>1273.99</v>
       </c>
       <c r="I10" s="1">
-        <v>-246.625000</v>
+        <v>-246.625</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>38198.940543</v>
+        <v>38198.940542999997</v>
       </c>
       <c r="L10" s="1">
-        <v>10.610817</v>
+        <v>10.610817000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>1307.460000</v>
+        <v>1307.46</v>
       </c>
       <c r="N10" s="1">
-        <v>-194.518000</v>
+        <v>-194.518</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>38209.483008</v>
+        <v>38209.483008000003</v>
       </c>
       <c r="Q10" s="1">
         <v>10.613745</v>
       </c>
       <c r="R10" s="1">
-        <v>1320.020000</v>
+        <v>1320.02</v>
       </c>
       <c r="S10" s="1">
-        <v>-179.649000</v>
+        <v>-179.649</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>38220.019061</v>
+        <v>38220.019060999999</v>
       </c>
       <c r="V10" s="1">
-        <v>10.616672</v>
+        <v>10.616671999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>1334.520000</v>
+        <v>1334.52</v>
       </c>
       <c r="X10" s="1">
-        <v>-168.707000</v>
+        <v>-168.70699999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>38230.600180</v>
+        <v>38230.600180000001</v>
       </c>
       <c r="AA10" s="1">
-        <v>10.619611</v>
+        <v>10.619611000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1353.510000</v>
+        <v>1353.51</v>
       </c>
       <c r="AC10" s="1">
-        <v>-168.513000</v>
+        <v>-168.51300000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>38241.125782</v>
+        <v>38241.125782000003</v>
       </c>
       <c r="AF10" s="1">
-        <v>10.622535</v>
+        <v>10.622534999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>1367.260000</v>
+        <v>1367.26</v>
       </c>
       <c r="AH10" s="1">
-        <v>-178.808000</v>
+        <v>-178.80799999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>38251.507050</v>
+        <v>38251.50705</v>
       </c>
       <c r="AK10" s="1">
-        <v>10.625419</v>
+        <v>10.625419000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>1388.670000</v>
+        <v>1388.67</v>
       </c>
       <c r="AM10" s="1">
-        <v>-209.070000</v>
+        <v>-209.07</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>38262.548491</v>
+        <v>38262.548491000001</v>
       </c>
       <c r="AP10" s="1">
-        <v>10.628486</v>
+        <v>10.628486000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1410.680000</v>
+        <v>1410.68</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.059000</v>
+        <v>-253.059</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>38273.568144</v>
+        <v>38273.568143999997</v>
       </c>
       <c r="AU10" s="1">
-        <v>10.631547</v>
+        <v>10.631546999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>1435.420000</v>
+        <v>1435.42</v>
       </c>
       <c r="AW10" s="1">
-        <v>-313.109000</v>
+        <v>-313.10899999999998</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>38284.661629</v>
+        <v>38284.661629000002</v>
       </c>
       <c r="AZ10" s="1">
-        <v>10.634628</v>
+        <v>10.634627999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1454.770000</v>
+        <v>1454.77</v>
       </c>
       <c r="BB10" s="1">
-        <v>-365.298000</v>
+        <v>-365.298</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>38295.944622</v>
+        <v>38295.944622000003</v>
       </c>
       <c r="BE10" s="1">
         <v>10.637762</v>
       </c>
       <c r="BF10" s="1">
-        <v>1539.830000</v>
+        <v>1539.83</v>
       </c>
       <c r="BG10" s="1">
-        <v>-614.236000</v>
+        <v>-614.23599999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>38307.470654</v>
+        <v>38307.470653999997</v>
       </c>
       <c r="BJ10" s="1">
         <v>10.640964</v>
       </c>
       <c r="BK10" s="1">
-        <v>1693.310000</v>
+        <v>1693.31</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1061.360000</v>
+        <v>-1061.3599999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>38318.118821</v>
+        <v>38318.118820999996</v>
       </c>
       <c r="BO10" s="1">
         <v>10.643922</v>
       </c>
       <c r="BP10" s="1">
-        <v>1986.180000</v>
+        <v>1986.18</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1837.520000</v>
+        <v>-1837.52</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>38329.482611</v>
+        <v>38329.482610999999</v>
       </c>
       <c r="BT10" s="1">
         <v>10.647079</v>
       </c>
       <c r="BU10" s="1">
-        <v>2369.830000</v>
+        <v>2369.83</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2735.960000</v>
+        <v>-2735.96</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>38340.216154</v>
+        <v>38340.216154000002</v>
       </c>
       <c r="BY10" s="1">
-        <v>10.650060</v>
+        <v>10.65006</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2855.380000</v>
+        <v>2855.38</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3717.670000</v>
+        <v>-3717.67</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>38352.282211</v>
+        <v>38352.282210999998</v>
       </c>
       <c r="CD10" s="1">
-        <v>10.653412</v>
+        <v>10.653411999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>4290.290000</v>
+        <v>4290.29</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6089.260000</v>
+        <v>-6089.26</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>38178.378393</v>
+        <v>38178.378392999999</v>
       </c>
       <c r="B11" s="1">
         <v>10.605105</v>
       </c>
       <c r="C11" s="1">
-        <v>1250.940000</v>
+        <v>1250.94</v>
       </c>
       <c r="D11" s="1">
-        <v>-282.892000</v>
+        <v>-282.892</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>38188.811284</v>
+        <v>38188.811284000003</v>
       </c>
       <c r="G11" s="1">
         <v>10.608003</v>
       </c>
       <c r="H11" s="1">
-        <v>1273.320000</v>
+        <v>1273.32</v>
       </c>
       <c r="I11" s="1">
-        <v>-246.588000</v>
+        <v>-246.58799999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>38199.286253</v>
+        <v>38199.286252999998</v>
       </c>
       <c r="L11" s="1">
         <v>10.610913</v>
       </c>
       <c r="M11" s="1">
-        <v>1307.380000</v>
+        <v>1307.3800000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>-194.637000</v>
+        <v>-194.637</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>38209.912080</v>
+        <v>38209.912080000002</v>
       </c>
       <c r="Q11" s="1">
         <v>10.613864</v>
       </c>
       <c r="R11" s="1">
-        <v>1320.070000</v>
+        <v>1320.07</v>
       </c>
       <c r="S11" s="1">
-        <v>-179.511000</v>
+        <v>-179.511</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>38220.451042</v>
+        <v>38220.451042000001</v>
       </c>
       <c r="V11" s="1">
         <v>10.616792</v>
       </c>
       <c r="W11" s="1">
-        <v>1334.470000</v>
+        <v>1334.47</v>
       </c>
       <c r="X11" s="1">
-        <v>-168.726000</v>
+        <v>-168.726</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>38230.876452</v>
+        <v>38230.876451999997</v>
       </c>
       <c r="AA11" s="1">
         <v>10.619688</v>
       </c>
       <c r="AB11" s="1">
-        <v>1353.360000</v>
+        <v>1353.36</v>
       </c>
       <c r="AC11" s="1">
-        <v>-168.521000</v>
+        <v>-168.52099999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>38241.414950</v>
+        <v>38241.414949999998</v>
       </c>
       <c r="AF11" s="1">
         <v>10.622615</v>
       </c>
       <c r="AG11" s="1">
-        <v>1367.250000</v>
+        <v>1367.25</v>
       </c>
       <c r="AH11" s="1">
-        <v>-178.799000</v>
+        <v>-178.79900000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>38251.857255</v>
+        <v>38251.857255000003</v>
       </c>
       <c r="AK11" s="1">
-        <v>10.625516</v>
+        <v>10.625515999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>1388.720000</v>
+        <v>1388.72</v>
       </c>
       <c r="AM11" s="1">
-        <v>-209.039000</v>
+        <v>-209.03899999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>38262.910074</v>
+        <v>38262.910073999999</v>
       </c>
       <c r="AP11" s="1">
         <v>10.628586</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1410.700000</v>
+        <v>1410.7</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.015000</v>
+        <v>-253.01499999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>38273.929195</v>
+        <v>38273.929194999997</v>
       </c>
       <c r="AU11" s="1">
-        <v>10.631647</v>
+        <v>10.631646999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>1435.430000</v>
+        <v>1435.43</v>
       </c>
       <c r="AW11" s="1">
-        <v>-313.074000</v>
+        <v>-313.07400000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>38285.378844</v>
+        <v>38285.378843999999</v>
       </c>
       <c r="AZ11" s="1">
         <v>10.634827</v>
       </c>
       <c r="BA11" s="1">
-        <v>1454.850000</v>
+        <v>1454.85</v>
       </c>
       <c r="BB11" s="1">
-        <v>-365.317000</v>
+        <v>-365.31700000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>38296.663822</v>
+        <v>38296.663822000002</v>
       </c>
       <c r="BE11" s="1">
         <v>10.637962</v>
       </c>
       <c r="BF11" s="1">
-        <v>1539.770000</v>
+        <v>1539.77</v>
       </c>
       <c r="BG11" s="1">
-        <v>-614.250000</v>
+        <v>-614.25</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>38307.848110</v>
+        <v>38307.848109999999</v>
       </c>
       <c r="BJ11" s="1">
         <v>10.641069</v>
       </c>
       <c r="BK11" s="1">
-        <v>1693.310000</v>
+        <v>1693.31</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1061.260000</v>
+        <v>-1061.26</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>38318.517056</v>
+        <v>38318.517055999997</v>
       </c>
       <c r="BO11" s="1">
         <v>10.644033</v>
       </c>
       <c r="BP11" s="1">
-        <v>1986.170000</v>
+        <v>1986.17</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1837.590000</v>
+        <v>-1837.59</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>38329.892305</v>
+        <v>38329.892305000001</v>
       </c>
       <c r="BT11" s="1">
         <v>10.647192</v>
       </c>
       <c r="BU11" s="1">
-        <v>2369.710000</v>
+        <v>2369.71</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2736.030000</v>
+        <v>-2736.03</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>38340.944658</v>
@@ -3019,861 +3435,861 @@
         <v>10.650262</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2854.900000</v>
+        <v>2854.9</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3717.910000</v>
+        <v>-3717.91</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>38352.516855</v>
+        <v>38352.516855000002</v>
       </c>
       <c r="CD11" s="1">
-        <v>10.653477</v>
+        <v>10.653477000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>4288.160000</v>
+        <v>4288.16</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6084.810000</v>
+        <v>-6084.81</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>38178.722617</v>
+        <v>38178.722616999999</v>
       </c>
       <c r="B12" s="1">
-        <v>10.605201</v>
+        <v>10.605200999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>1250.660000</v>
+        <v>1250.6600000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-283.068000</v>
+        <v>-283.06799999999998</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>38189.152032</v>
+        <v>38189.152031999998</v>
       </c>
       <c r="G12" s="1">
         <v>10.608098</v>
       </c>
       <c r="H12" s="1">
-        <v>1273.750000</v>
+        <v>1273.75</v>
       </c>
       <c r="I12" s="1">
-        <v>-246.373000</v>
+        <v>-246.37299999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>38199.707393</v>
+        <v>38199.707392999997</v>
       </c>
       <c r="L12" s="1">
-        <v>10.611030</v>
+        <v>10.61103</v>
       </c>
       <c r="M12" s="1">
-        <v>1307.300000</v>
+        <v>1307.3</v>
       </c>
       <c r="N12" s="1">
-        <v>-194.389000</v>
+        <v>-194.38900000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>38210.190800</v>
+        <v>38210.190799999997</v>
       </c>
       <c r="Q12" s="1">
         <v>10.613942</v>
       </c>
       <c r="R12" s="1">
-        <v>1320.010000</v>
+        <v>1320.01</v>
       </c>
       <c r="S12" s="1">
-        <v>-179.519000</v>
+        <v>-179.51900000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>38220.730289</v>
+        <v>38220.730288999999</v>
       </c>
       <c r="V12" s="1">
-        <v>10.616870</v>
+        <v>10.61687</v>
       </c>
       <c r="W12" s="1">
-        <v>1334.540000</v>
+        <v>1334.54</v>
       </c>
       <c r="X12" s="1">
-        <v>-168.719000</v>
+        <v>-168.71899999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>38231.225894</v>
+        <v>38231.225894000003</v>
       </c>
       <c r="AA12" s="1">
         <v>10.619785</v>
       </c>
       <c r="AB12" s="1">
-        <v>1353.550000</v>
+        <v>1353.55</v>
       </c>
       <c r="AC12" s="1">
-        <v>-168.282000</v>
+        <v>-168.28200000000001</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>38241.764133</v>
+        <v>38241.764132999997</v>
       </c>
       <c r="AF12" s="1">
         <v>10.622712</v>
       </c>
       <c r="AG12" s="1">
-        <v>1367.190000</v>
+        <v>1367.19</v>
       </c>
       <c r="AH12" s="1">
-        <v>-178.820000</v>
+        <v>-178.82</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>38252.207220</v>
+        <v>38252.207219999997</v>
       </c>
       <c r="AK12" s="1">
         <v>10.625613</v>
       </c>
       <c r="AL12" s="1">
-        <v>1388.680000</v>
+        <v>1388.68</v>
       </c>
       <c r="AM12" s="1">
-        <v>-209.058000</v>
+        <v>-209.05799999999999</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>38263.632746</v>
+        <v>38263.632746000003</v>
       </c>
       <c r="AP12" s="1">
-        <v>10.628787</v>
+        <v>10.628787000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1410.720000</v>
+        <v>1410.72</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.031000</v>
+        <v>-253.03100000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>38274.660299</v>
+        <v>38274.660299000003</v>
       </c>
       <c r="AU12" s="1">
-        <v>10.631850</v>
+        <v>10.63185</v>
       </c>
       <c r="AV12" s="1">
-        <v>1435.410000</v>
+        <v>1435.41</v>
       </c>
       <c r="AW12" s="1">
-        <v>-313.113000</v>
+        <v>-313.113</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>38285.738445</v>
+        <v>38285.738445000003</v>
       </c>
       <c r="AZ12" s="1">
-        <v>10.634927</v>
+        <v>10.634926999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1454.790000</v>
+        <v>1454.79</v>
       </c>
       <c r="BB12" s="1">
-        <v>-365.331000</v>
+        <v>-365.33100000000002</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>38297.022430</v>
+        <v>38297.022429999997</v>
       </c>
       <c r="BE12" s="1">
         <v>10.638062</v>
       </c>
       <c r="BF12" s="1">
-        <v>1539.810000</v>
+        <v>1539.81</v>
       </c>
       <c r="BG12" s="1">
-        <v>-614.261000</v>
+        <v>-614.26099999999997</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>38308.223614</v>
+        <v>38308.223614000002</v>
       </c>
       <c r="BJ12" s="1">
         <v>10.641173</v>
       </c>
       <c r="BK12" s="1">
-        <v>1693.340000</v>
+        <v>1693.34</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1061.380000</v>
+        <v>-1061.3800000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>38319.240224</v>
+        <v>38319.240224000001</v>
       </c>
       <c r="BO12" s="1">
         <v>10.644233</v>
       </c>
       <c r="BP12" s="1">
-        <v>1986.170000</v>
+        <v>1986.17</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1837.500000</v>
+        <v>-1837.5</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>38330.655152</v>
+        <v>38330.655151999999</v>
       </c>
       <c r="BT12" s="1">
         <v>10.647404</v>
       </c>
       <c r="BU12" s="1">
-        <v>2369.910000</v>
+        <v>2369.91</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2735.600000</v>
+        <v>-2735.6</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>38341.116042</v>
+        <v>38341.116042000001</v>
       </c>
       <c r="BY12" s="1">
-        <v>10.650310</v>
+        <v>10.650309999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2855.020000</v>
+        <v>2855.02</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3716.960000</v>
+        <v>-3716.96</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>38353.035666</v>
+        <v>38353.035666000003</v>
       </c>
       <c r="CD12" s="1">
-        <v>10.653621</v>
+        <v>10.653620999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>4270.570000</v>
+        <v>4270.57</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6080.780000</v>
+        <v>-6080.78</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>38179.147192</v>
+        <v>38179.147191999997</v>
       </c>
       <c r="B13" s="1">
         <v>10.605319</v>
       </c>
       <c r="C13" s="1">
-        <v>1251.120000</v>
+        <v>1251.1199999999999</v>
       </c>
       <c r="D13" s="1">
-        <v>-282.532000</v>
+        <v>-282.53199999999998</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>38189.569626</v>
+        <v>38189.569625999997</v>
       </c>
       <c r="G13" s="1">
         <v>10.608214</v>
       </c>
       <c r="H13" s="1">
-        <v>1273.260000</v>
+        <v>1273.26</v>
       </c>
       <c r="I13" s="1">
-        <v>-246.313000</v>
+        <v>-246.31299999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>38199.986605</v>
+        <v>38199.986604999998</v>
       </c>
       <c r="L13" s="1">
-        <v>10.611107</v>
+        <v>10.611107000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>1307.770000</v>
+        <v>1307.77</v>
       </c>
       <c r="N13" s="1">
-        <v>-194.816000</v>
+        <v>-194.816</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>38210.537999</v>
       </c>
       <c r="Q13" s="1">
-        <v>10.614038</v>
+        <v>10.614038000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>1320.110000</v>
+        <v>1320.11</v>
       </c>
       <c r="S13" s="1">
-        <v>-179.370000</v>
+        <v>-179.37</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>38221.074545</v>
+        <v>38221.074545000003</v>
       </c>
       <c r="V13" s="1">
         <v>10.616965</v>
       </c>
       <c r="W13" s="1">
-        <v>1334.560000</v>
+        <v>1334.56</v>
       </c>
       <c r="X13" s="1">
-        <v>-168.761000</v>
+        <v>-168.761</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>38231.571845</v>
+        <v>38231.571844999999</v>
       </c>
       <c r="AA13" s="1">
-        <v>10.619881</v>
+        <v>10.619880999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>1353.480000</v>
+        <v>1353.48</v>
       </c>
       <c r="AC13" s="1">
-        <v>-168.376000</v>
+        <v>-168.376</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>38242.105876</v>
+        <v>38242.105876000001</v>
       </c>
       <c r="AF13" s="1">
         <v>10.622807</v>
       </c>
       <c r="AG13" s="1">
-        <v>1367.250000</v>
+        <v>1367.25</v>
       </c>
       <c r="AH13" s="1">
-        <v>-178.751000</v>
+        <v>-178.751</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>38252.903783</v>
+        <v>38252.903783000002</v>
       </c>
       <c r="AK13" s="1">
         <v>10.625807</v>
       </c>
       <c r="AL13" s="1">
-        <v>1388.670000</v>
+        <v>1388.67</v>
       </c>
       <c r="AM13" s="1">
-        <v>-209.012000</v>
+        <v>-209.012</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>38264.020122</v>
+        <v>38264.020122000002</v>
       </c>
       <c r="AP13" s="1">
-        <v>10.628894</v>
+        <v>10.628894000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1410.680000</v>
+        <v>1410.68</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.016000</v>
+        <v>-253.01599999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>38275.026347</v>
+        <v>38275.026346999999</v>
       </c>
       <c r="AU13" s="1">
         <v>10.631952</v>
       </c>
       <c r="AV13" s="1">
-        <v>1435.430000</v>
+        <v>1435.43</v>
       </c>
       <c r="AW13" s="1">
-        <v>-313.092000</v>
+        <v>-313.09199999999998</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>38286.097547</v>
+        <v>38286.097546999998</v>
       </c>
       <c r="AZ13" s="1">
-        <v>10.635027</v>
+        <v>10.635026999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1454.770000</v>
+        <v>1454.77</v>
       </c>
       <c r="BB13" s="1">
-        <v>-365.269000</v>
+        <v>-365.26900000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>38297.693516</v>
+        <v>38297.693515999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>10.638248</v>
+        <v>10.638248000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1539.850000</v>
+        <v>1539.85</v>
       </c>
       <c r="BG13" s="1">
-        <v>-614.225000</v>
+        <v>-614.22500000000002</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>38308.905085</v>
+        <v>38308.905084999999</v>
       </c>
       <c r="BJ13" s="1">
         <v>10.641363</v>
       </c>
       <c r="BK13" s="1">
-        <v>1693.290000</v>
+        <v>1693.29</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1061.310000</v>
+        <v>-1061.31</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>38319.359265</v>
+        <v>38319.359264999999</v>
       </c>
       <c r="BO13" s="1">
         <v>10.644266</v>
       </c>
       <c r="BP13" s="1">
-        <v>1986.010000</v>
+        <v>1986.01</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1837.410000</v>
+        <v>-1837.41</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>38330.769728</v>
+        <v>38330.769727999999</v>
       </c>
       <c r="BT13" s="1">
-        <v>10.647436</v>
+        <v>10.647436000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>2369.720000</v>
+        <v>2369.7199999999998</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2735.610000</v>
+        <v>-2735.61</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>38341.540353</v>
+        <v>38341.540352999997</v>
       </c>
       <c r="BY13" s="1">
         <v>10.650428</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2854.860000</v>
+        <v>2854.86</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3717.500000</v>
+        <v>-3717.5</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>38353.553985</v>
+        <v>38353.553984999999</v>
       </c>
       <c r="CD13" s="1">
         <v>10.653765</v>
       </c>
       <c r="CE13" s="1">
-        <v>4267.400000</v>
+        <v>4267.3999999999996</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6096.760000</v>
+        <v>-6096.76</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>38179.419534</v>
+        <v>38179.419534000001</v>
       </c>
       <c r="B14" s="1">
         <v>10.605394</v>
       </c>
       <c r="C14" s="1">
-        <v>1250.970000</v>
+        <v>1250.97</v>
       </c>
       <c r="D14" s="1">
-        <v>-282.989000</v>
+        <v>-282.98899999999998</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>38189.896334</v>
+        <v>38189.896333999997</v>
       </c>
       <c r="G14" s="1">
         <v>10.608305</v>
       </c>
       <c r="H14" s="1">
-        <v>1273.520000</v>
+        <v>1273.52</v>
       </c>
       <c r="I14" s="1">
-        <v>-247.036000</v>
+        <v>-247.036</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>38200.331356</v>
+        <v>38200.331356000002</v>
       </c>
       <c r="L14" s="1">
         <v>10.611203</v>
       </c>
       <c r="M14" s="1">
-        <v>1307.130000</v>
+        <v>1307.1300000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-194.575000</v>
+        <v>-194.57499999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>38210.890656</v>
+        <v>38210.890656000003</v>
       </c>
       <c r="Q14" s="1">
         <v>10.614136</v>
       </c>
       <c r="R14" s="1">
-        <v>1320.120000</v>
+        <v>1320.12</v>
       </c>
       <c r="S14" s="1">
-        <v>-179.650000</v>
+        <v>-179.65</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>38221.413810</v>
+        <v>38221.413809999998</v>
       </c>
       <c r="V14" s="1">
-        <v>10.617059</v>
+        <v>10.617058999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>1334.510000</v>
+        <v>1334.51</v>
       </c>
       <c r="X14" s="1">
-        <v>-168.662000</v>
+        <v>-168.66200000000001</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>38232.269217</v>
+        <v>38232.269217000001</v>
       </c>
       <c r="AA14" s="1">
         <v>10.620075</v>
       </c>
       <c r="AB14" s="1">
-        <v>1353.370000</v>
+        <v>1353.37</v>
       </c>
       <c r="AC14" s="1">
-        <v>-168.623000</v>
+        <v>-168.62299999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>38242.926292</v>
+        <v>38242.926291999996</v>
       </c>
       <c r="AF14" s="1">
         <v>10.623035</v>
       </c>
       <c r="AG14" s="1">
-        <v>1367.280000</v>
+        <v>1367.28</v>
       </c>
       <c r="AH14" s="1">
-        <v>-178.803000</v>
+        <v>-178.803</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>38253.251015</v>
+        <v>38253.251015000002</v>
       </c>
       <c r="AK14" s="1">
-        <v>10.625903</v>
+        <v>10.625902999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>1388.660000</v>
+        <v>1388.66</v>
       </c>
       <c r="AM14" s="1">
-        <v>-209.021000</v>
+        <v>-209.02099999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>38264.378727</v>
+        <v>38264.378727000003</v>
       </c>
       <c r="AP14" s="1">
         <v>10.628994</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1410.690000</v>
+        <v>1410.69</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.027000</v>
+        <v>-253.02699999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>38275.391428</v>
+        <v>38275.391428000003</v>
       </c>
       <c r="AU14" s="1">
-        <v>10.632053</v>
+        <v>10.632053000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1435.460000</v>
+        <v>1435.46</v>
       </c>
       <c r="AW14" s="1">
-        <v>-313.104000</v>
+        <v>-313.10399999999998</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>38286.764202</v>
+        <v>38286.764201999998</v>
       </c>
       <c r="AZ14" s="1">
-        <v>10.635212</v>
+        <v>10.635211999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1454.790000</v>
+        <v>1454.79</v>
       </c>
       <c r="BB14" s="1">
-        <v>-365.277000</v>
+        <v>-365.27699999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>38298.142920</v>
+        <v>38298.142919999998</v>
       </c>
       <c r="BE14" s="1">
         <v>10.638373</v>
       </c>
       <c r="BF14" s="1">
-        <v>1539.820000</v>
+        <v>1539.82</v>
       </c>
       <c r="BG14" s="1">
-        <v>-614.211000</v>
+        <v>-614.21100000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>38309.013709</v>
+        <v>38309.013708999999</v>
       </c>
       <c r="BJ14" s="1">
-        <v>10.641393</v>
+        <v>10.641393000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1693.270000</v>
+        <v>1693.27</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1061.330000</v>
+        <v>-1061.33</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>38319.759038</v>
+        <v>38319.759037999997</v>
       </c>
       <c r="BO14" s="1">
         <v>10.644378</v>
       </c>
       <c r="BP14" s="1">
-        <v>1986.150000</v>
+        <v>1986.15</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1837.550000</v>
+        <v>-1837.55</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>38331.191328</v>
+        <v>38331.191328000001</v>
       </c>
       <c r="BT14" s="1">
         <v>10.647553</v>
       </c>
       <c r="BU14" s="1">
-        <v>2369.650000</v>
+        <v>2369.65</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2735.360000</v>
+        <v>-2735.36</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>38341.989268</v>
+        <v>38341.989267999998</v>
       </c>
       <c r="BY14" s="1">
         <v>10.650553</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2854.330000</v>
+        <v>2854.33</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3717.780000</v>
+        <v>-3717.78</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>38354.068837</v>
+        <v>38354.068836999999</v>
       </c>
       <c r="CD14" s="1">
-        <v>10.653908</v>
+        <v>10.653907999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>4281.430000</v>
+        <v>4281.43</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6099.530000</v>
+        <v>-6099.53</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>38179.761271</v>
+        <v>38179.761271000003</v>
       </c>
       <c r="B15" s="1">
         <v>10.605489</v>
       </c>
       <c r="C15" s="1">
-        <v>1250.850000</v>
+        <v>1250.8499999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>-282.890000</v>
+        <v>-282.89</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>38190.216410</v>
+        <v>38190.216410000001</v>
       </c>
       <c r="G15" s="1">
         <v>10.608393</v>
       </c>
       <c r="H15" s="1">
-        <v>1274.040000</v>
+        <v>1274.04</v>
       </c>
       <c r="I15" s="1">
-        <v>-246.475000</v>
+        <v>-246.47499999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>38200.676571</v>
+        <v>38200.676571000004</v>
       </c>
       <c r="L15" s="1">
-        <v>10.611299</v>
+        <v>10.611299000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>1307.660000</v>
+        <v>1307.6600000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-194.984000</v>
+        <v>-194.98400000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>38211.583597</v>
+        <v>38211.583596999997</v>
       </c>
       <c r="Q15" s="1">
         <v>10.614329</v>
       </c>
       <c r="R15" s="1">
-        <v>1320.020000</v>
+        <v>1320.02</v>
       </c>
       <c r="S15" s="1">
-        <v>-179.768000</v>
+        <v>-179.768</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>38222.105226</v>
@@ -3882,255 +4298,255 @@
         <v>10.617251</v>
       </c>
       <c r="W15" s="1">
-        <v>1334.440000</v>
+        <v>1334.44</v>
       </c>
       <c r="X15" s="1">
-        <v>-168.720000</v>
+        <v>-168.72</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>38232.621874</v>
+        <v>38232.621873999997</v>
       </c>
       <c r="AA15" s="1">
-        <v>10.620173</v>
+        <v>10.620172999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>1353.560000</v>
+        <v>1353.56</v>
       </c>
       <c r="AC15" s="1">
-        <v>-168.624000</v>
+        <v>-168.624</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>38243.133092</v>
+        <v>38243.133091999996</v>
       </c>
       <c r="AF15" s="1">
-        <v>10.623093</v>
+        <v>10.623093000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>1367.250000</v>
+        <v>1367.25</v>
       </c>
       <c r="AH15" s="1">
-        <v>-178.740000</v>
+        <v>-178.74</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>38253.598211</v>
+        <v>38253.598210999997</v>
       </c>
       <c r="AK15" s="1">
-        <v>10.626000</v>
+        <v>10.625999999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>1388.680000</v>
+        <v>1388.68</v>
       </c>
       <c r="AM15" s="1">
-        <v>-209.000000</v>
+        <v>-209</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>38265.038911</v>
+        <v>38265.038911000003</v>
       </c>
       <c r="AP15" s="1">
         <v>10.629177</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1410.670000</v>
+        <v>1410.67</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.023000</v>
+        <v>-253.023</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>38276.067448</v>
+        <v>38276.067448000002</v>
       </c>
       <c r="AU15" s="1">
         <v>10.632241</v>
       </c>
       <c r="AV15" s="1">
-        <v>1435.440000</v>
+        <v>1435.44</v>
       </c>
       <c r="AW15" s="1">
-        <v>-313.105000</v>
+        <v>-313.10500000000002</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>38287.175385</v>
+        <v>38287.175385000002</v>
       </c>
       <c r="AZ15" s="1">
-        <v>10.635326</v>
+        <v>10.635325999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1454.810000</v>
+        <v>1454.81</v>
       </c>
       <c r="BB15" s="1">
-        <v>-365.329000</v>
+        <v>-365.32900000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>38298.502500</v>
+        <v>38298.502500000002</v>
       </c>
       <c r="BE15" s="1">
-        <v>10.638473</v>
+        <v>10.638472999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1539.820000</v>
+        <v>1539.82</v>
       </c>
       <c r="BG15" s="1">
-        <v>-614.206000</v>
+        <v>-614.20600000000002</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>38309.380748</v>
+        <v>38309.380748000003</v>
       </c>
       <c r="BJ15" s="1">
-        <v>10.641495</v>
+        <v>10.641495000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1693.330000</v>
+        <v>1693.33</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1061.280000</v>
+        <v>-1061.28</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>38320.178653</v>
+        <v>38320.178653000003</v>
       </c>
       <c r="BO15" s="1">
         <v>10.644494</v>
       </c>
       <c r="BP15" s="1">
-        <v>1986.280000</v>
+        <v>1986.28</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1837.520000</v>
+        <v>-1837.52</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>38331.602015</v>
+        <v>38331.602014999997</v>
       </c>
       <c r="BT15" s="1">
         <v>10.647667</v>
       </c>
       <c r="BU15" s="1">
-        <v>2369.780000</v>
+        <v>2369.7800000000002</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2735.250000</v>
+        <v>-2735.25</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>38342.421776</v>
+        <v>38342.421776000003</v>
       </c>
       <c r="BY15" s="1">
-        <v>10.650673</v>
+        <v>10.650672999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2855.240000</v>
+        <v>2855.24</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3717.140000</v>
+        <v>-3717.14</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>38354.590625</v>
+        <v>38354.590624999997</v>
       </c>
       <c r="CD15" s="1">
-        <v>10.654053</v>
+        <v>10.654052999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>4272.810000</v>
+        <v>4272.8100000000004</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6080.330000</v>
+        <v>-6080.33</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>38180.101526</v>
+        <v>38180.101525999999</v>
       </c>
       <c r="B16" s="1">
         <v>10.605584</v>
       </c>
       <c r="C16" s="1">
-        <v>1251.660000</v>
+        <v>1251.6600000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>-283.041000</v>
+        <v>-283.041</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>38190.901882</v>
+        <v>38190.901881999998</v>
       </c>
       <c r="G16" s="1">
         <v>10.608584</v>
       </c>
       <c r="H16" s="1">
-        <v>1273.380000</v>
+        <v>1273.3800000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-246.392000</v>
+        <v>-246.392</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>38201.366475</v>
+        <v>38201.366475000003</v>
       </c>
       <c r="L16" s="1">
-        <v>10.611491</v>
+        <v>10.611490999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>1307.130000</v>
+        <v>1307.1300000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>-194.727000</v>
+        <v>-194.727</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>38211.934271</v>
+        <v>38211.934270999998</v>
       </c>
       <c r="Q16" s="1">
         <v>10.614426</v>
       </c>
       <c r="R16" s="1">
-        <v>1320.000000</v>
+        <v>1320</v>
       </c>
       <c r="S16" s="1">
-        <v>-179.610000</v>
+        <v>-179.61</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>38222.444959</v>
@@ -4139,557 +4555,557 @@
         <v>10.617346</v>
       </c>
       <c r="W16" s="1">
-        <v>1334.450000</v>
+        <v>1334.45</v>
       </c>
       <c r="X16" s="1">
-        <v>-168.841000</v>
+        <v>-168.84100000000001</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>38232.967130</v>
+        <v>38232.967129999997</v>
       </c>
       <c r="AA16" s="1">
         <v>10.620269</v>
       </c>
       <c r="AB16" s="1">
-        <v>1353.600000</v>
+        <v>1353.6</v>
       </c>
       <c r="AC16" s="1">
-        <v>-168.505000</v>
+        <v>-168.505</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>38243.788840</v>
+        <v>38243.788840000001</v>
       </c>
       <c r="AF16" s="1">
         <v>10.623275</v>
       </c>
       <c r="AG16" s="1">
-        <v>1367.250000</v>
+        <v>1367.25</v>
       </c>
       <c r="AH16" s="1">
-        <v>-178.783000</v>
+        <v>-178.78299999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>38254.262821</v>
+        <v>38254.262820999997</v>
       </c>
       <c r="AK16" s="1">
         <v>10.626184</v>
       </c>
       <c r="AL16" s="1">
-        <v>1388.660000</v>
+        <v>1388.66</v>
       </c>
       <c r="AM16" s="1">
-        <v>-209.005000</v>
+        <v>-209.005</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>38265.488810</v>
+        <v>38265.488810000003</v>
       </c>
       <c r="AP16" s="1">
-        <v>10.629302</v>
+        <v>10.629301999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1410.670000</v>
+        <v>1410.67</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.003000</v>
+        <v>-253.00299999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>38276.508919</v>
       </c>
       <c r="AU16" s="1">
-        <v>10.632364</v>
+        <v>10.632364000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>1435.420000</v>
+        <v>1435.42</v>
       </c>
       <c r="AW16" s="1">
-        <v>-313.090000</v>
+        <v>-313.08999999999997</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>38287.562729</v>
+        <v>38287.562728999997</v>
       </c>
       <c r="AZ16" s="1">
         <v>10.635434</v>
       </c>
       <c r="BA16" s="1">
-        <v>1454.780000</v>
+        <v>1454.78</v>
       </c>
       <c r="BB16" s="1">
-        <v>-365.270000</v>
+        <v>-365.27</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>38298.865563</v>
+        <v>38298.865562999999</v>
       </c>
       <c r="BE16" s="1">
         <v>10.638574</v>
       </c>
       <c r="BF16" s="1">
-        <v>1539.830000</v>
+        <v>1539.83</v>
       </c>
       <c r="BG16" s="1">
-        <v>-614.238000</v>
+        <v>-614.23800000000006</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>38309.755263</v>
+        <v>38309.755262999999</v>
       </c>
       <c r="BJ16" s="1">
-        <v>10.641599</v>
+        <v>10.641598999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1693.290000</v>
+        <v>1693.29</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1061.310000</v>
+        <v>-1061.31</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>38320.617117</v>
+        <v>38320.617117000002</v>
       </c>
       <c r="BO16" s="1">
-        <v>10.644616</v>
+        <v>10.644615999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1986.170000</v>
+        <v>1986.17</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1837.440000</v>
+        <v>-1837.44</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>38332.083631</v>
+        <v>38332.083631000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>10.647801</v>
+        <v>10.647800999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>2369.530000</v>
+        <v>2369.5300000000002</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2734.980000</v>
+        <v>-2734.98</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>38342.832432</v>
+        <v>38342.832432000003</v>
       </c>
       <c r="BY16" s="1">
-        <v>10.650787</v>
+        <v>10.650786999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2854.310000</v>
+        <v>2854.31</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3717.080000</v>
+        <v>-3717.08</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>38355.128779</v>
+        <v>38355.128778999999</v>
       </c>
       <c r="CD16" s="1">
         <v>10.654202</v>
       </c>
       <c r="CE16" s="1">
-        <v>4274.860000</v>
+        <v>4274.8599999999997</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6102.770000</v>
+        <v>-6102.77</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>38180.784518</v>
       </c>
       <c r="B17" s="1">
-        <v>10.605773</v>
+        <v>10.605772999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>1251.330000</v>
+        <v>1251.33</v>
       </c>
       <c r="D17" s="1">
-        <v>-282.508000</v>
+        <v>-282.50799999999998</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>38191.248120</v>
+        <v>38191.248119999997</v>
       </c>
       <c r="G17" s="1">
-        <v>10.608680</v>
+        <v>10.60868</v>
       </c>
       <c r="H17" s="1">
-        <v>1274.120000</v>
+        <v>1274.1199999999999</v>
       </c>
       <c r="I17" s="1">
-        <v>-246.633000</v>
+        <v>-246.63300000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>38201.712682</v>
+        <v>38201.712681999998</v>
       </c>
       <c r="L17" s="1">
         <v>10.611587</v>
       </c>
       <c r="M17" s="1">
-        <v>1307.710000</v>
+        <v>1307.71</v>
       </c>
       <c r="N17" s="1">
-        <v>-194.352000</v>
+        <v>-194.352</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>38212.283949</v>
+        <v>38212.283948999997</v>
       </c>
       <c r="Q17" s="1">
         <v>10.614523</v>
       </c>
       <c r="R17" s="1">
-        <v>1320.050000</v>
+        <v>1320.05</v>
       </c>
       <c r="S17" s="1">
-        <v>-179.584000</v>
+        <v>-179.584</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>38222.789183</v>
+        <v>38222.789183000001</v>
       </c>
       <c r="V17" s="1">
-        <v>10.617441</v>
+        <v>10.617440999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>1334.520000</v>
+        <v>1334.52</v>
       </c>
       <c r="X17" s="1">
-        <v>-168.674000</v>
+        <v>-168.67400000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>38233.626769</v>
+        <v>38233.626769000002</v>
       </c>
       <c r="AA17" s="1">
         <v>10.620452</v>
       </c>
       <c r="AB17" s="1">
-        <v>1353.540000</v>
+        <v>1353.54</v>
       </c>
       <c r="AC17" s="1">
-        <v>-168.407000</v>
+        <v>-168.40700000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>38244.164308</v>
+        <v>38244.164307999999</v>
       </c>
       <c r="AF17" s="1">
         <v>10.623379</v>
       </c>
       <c r="AG17" s="1">
-        <v>1367.280000</v>
+        <v>1367.28</v>
       </c>
       <c r="AH17" s="1">
-        <v>-178.690000</v>
+        <v>-178.69</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>38254.645238</v>
+        <v>38254.645237999997</v>
       </c>
       <c r="AK17" s="1">
-        <v>10.626290</v>
+        <v>10.626289999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>1388.660000</v>
+        <v>1388.66</v>
       </c>
       <c r="AM17" s="1">
-        <v>-209.056000</v>
+        <v>-209.05600000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>38265.846918</v>
+        <v>38265.846918000003</v>
       </c>
       <c r="AP17" s="1">
-        <v>10.629402</v>
+        <v>10.629402000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1410.720000</v>
+        <v>1410.72</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.030000</v>
+        <v>-253.03</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>38276.879399</v>
+        <v>38276.879398999998</v>
       </c>
       <c r="AU17" s="1">
-        <v>10.632466</v>
+        <v>10.632466000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1435.440000</v>
+        <v>1435.44</v>
       </c>
       <c r="AW17" s="1">
-        <v>-313.079000</v>
+        <v>-313.07900000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>38287.921834</v>
+        <v>38287.921834000001</v>
       </c>
       <c r="AZ17" s="1">
         <v>10.635534</v>
       </c>
       <c r="BA17" s="1">
-        <v>1454.800000</v>
+        <v>1454.8</v>
       </c>
       <c r="BB17" s="1">
-        <v>-365.275000</v>
+        <v>-365.27499999999998</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>38299.287695</v>
+        <v>38299.287694999999</v>
       </c>
       <c r="BE17" s="1">
         <v>10.638691</v>
       </c>
       <c r="BF17" s="1">
-        <v>1539.830000</v>
+        <v>1539.83</v>
       </c>
       <c r="BG17" s="1">
-        <v>-614.250000</v>
+        <v>-614.25</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>38310.188235</v>
+        <v>38310.188235000001</v>
       </c>
       <c r="BJ17" s="1">
         <v>10.641719</v>
       </c>
       <c r="BK17" s="1">
-        <v>1693.320000</v>
+        <v>1693.32</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1061.310000</v>
+        <v>-1061.31</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>38320.999037</v>
+        <v>38320.999037000001</v>
       </c>
       <c r="BO17" s="1">
         <v>10.644722</v>
       </c>
       <c r="BP17" s="1">
-        <v>1986.110000</v>
+        <v>1986.11</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1837.390000</v>
+        <v>-1837.39</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>38332.460589</v>
+        <v>38332.460589000002</v>
       </c>
       <c r="BT17" s="1">
-        <v>10.647906</v>
+        <v>10.647906000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>2369.480000</v>
+        <v>2369.48</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2734.750000</v>
+        <v>-2734.75</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>38343.263984</v>
+        <v>38343.263983999997</v>
       </c>
       <c r="BY17" s="1">
         <v>10.650907</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2854.830000</v>
+        <v>2854.83</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3717.420000</v>
+        <v>-3717.42</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>38355.668431</v>
+        <v>38355.668430999998</v>
       </c>
       <c r="CD17" s="1">
-        <v>10.654352</v>
+        <v>10.654351999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>4284.440000</v>
+        <v>4284.4399999999996</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6086.090000</v>
+        <v>-6086.09</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>38181.129206</v>
+        <v>38181.129205999998</v>
       </c>
       <c r="B18" s="1">
         <v>10.605869</v>
       </c>
       <c r="C18" s="1">
-        <v>1251.130000</v>
+        <v>1251.1300000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-282.872000</v>
+        <v>-282.87200000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>38191.592844</v>
+        <v>38191.592843999999</v>
       </c>
       <c r="G18" s="1">
-        <v>10.608776</v>
+        <v>10.608776000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>1273.350000</v>
+        <v>1273.3499999999999</v>
       </c>
       <c r="I18" s="1">
-        <v>-246.647000</v>
+        <v>-246.64699999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>38202.061679</v>
+        <v>38202.061678999999</v>
       </c>
       <c r="L18" s="1">
         <v>10.611684</v>
       </c>
       <c r="M18" s="1">
-        <v>1307.480000</v>
+        <v>1307.48</v>
       </c>
       <c r="N18" s="1">
-        <v>-194.724000</v>
+        <v>-194.72399999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>38212.935164</v>
+        <v>38212.935164000002</v>
       </c>
       <c r="Q18" s="1">
         <v>10.614704</v>
       </c>
       <c r="R18" s="1">
-        <v>1320.070000</v>
+        <v>1320.07</v>
       </c>
       <c r="S18" s="1">
-        <v>-179.494000</v>
+        <v>-179.494</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>38223.446383</v>
+        <v>38223.446383000002</v>
       </c>
       <c r="V18" s="1">
-        <v>10.617624</v>
+        <v>10.617623999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>1334.420000</v>
+        <v>1334.42</v>
       </c>
       <c r="X18" s="1">
-        <v>-168.595000</v>
+        <v>-168.595</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>38234.012688</v>
+        <v>38234.012688000003</v>
       </c>
       <c r="AA18" s="1">
         <v>10.620559</v>
       </c>
       <c r="AB18" s="1">
-        <v>1353.340000</v>
+        <v>1353.34</v>
       </c>
       <c r="AC18" s="1">
-        <v>-168.526000</v>
+        <v>-168.52600000000001</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>38244.508003</v>
+        <v>38244.508003000003</v>
       </c>
       <c r="AF18" s="1">
         <v>10.623474</v>
       </c>
       <c r="AG18" s="1">
-        <v>1367.300000</v>
+        <v>1367.3</v>
       </c>
       <c r="AH18" s="1">
-        <v>-178.801000</v>
+        <v>-178.80099999999999</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>38254.995444</v>
@@ -4698,195 +5114,195 @@
         <v>10.626388</v>
       </c>
       <c r="AL18" s="1">
-        <v>1388.670000</v>
+        <v>1388.67</v>
       </c>
       <c r="AM18" s="1">
-        <v>-209.042000</v>
+        <v>-209.042</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>38266.209462</v>
+        <v>38266.209461999999</v>
       </c>
       <c r="AP18" s="1">
         <v>10.629503</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1410.700000</v>
+        <v>1410.7</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.008000</v>
+        <v>-253.00800000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>38277.242471</v>
+        <v>38277.242470999998</v>
       </c>
       <c r="AU18" s="1">
         <v>10.632567</v>
       </c>
       <c r="AV18" s="1">
-        <v>1435.450000</v>
+        <v>1435.45</v>
       </c>
       <c r="AW18" s="1">
-        <v>-313.077000</v>
+        <v>-313.077</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>38288.350415</v>
+        <v>38288.350415000001</v>
       </c>
       <c r="AZ18" s="1">
         <v>10.635653</v>
       </c>
       <c r="BA18" s="1">
-        <v>1454.760000</v>
+        <v>1454.76</v>
       </c>
       <c r="BB18" s="1">
-        <v>-365.256000</v>
+        <v>-365.25599999999997</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>38299.584795</v>
+        <v>38299.584795000002</v>
       </c>
       <c r="BE18" s="1">
         <v>10.638774</v>
       </c>
       <c r="BF18" s="1">
-        <v>1539.790000</v>
+        <v>1539.79</v>
       </c>
       <c r="BG18" s="1">
-        <v>-614.232000</v>
+        <v>-614.23199999999997</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>38310.498236</v>
+        <v>38310.498235999999</v>
       </c>
       <c r="BJ18" s="1">
         <v>10.641805</v>
       </c>
       <c r="BK18" s="1">
-        <v>1693.270000</v>
+        <v>1693.27</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1061.250000</v>
+        <v>-1061.25</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>38321.396828</v>
+        <v>38321.396827999997</v>
       </c>
       <c r="BO18" s="1">
-        <v>10.644832</v>
+        <v>10.644831999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1986.220000</v>
+        <v>1986.22</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1837.470000</v>
+        <v>-1837.47</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>38332.875742</v>
+        <v>38332.875741999997</v>
       </c>
       <c r="BT18" s="1">
         <v>10.648021</v>
       </c>
       <c r="BU18" s="1">
-        <v>2369.580000</v>
+        <v>2369.58</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2734.400000</v>
+        <v>-2734.4</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>38343.691051</v>
+        <v>38343.691051000002</v>
       </c>
       <c r="BY18" s="1">
-        <v>10.651025</v>
+        <v>10.651025000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2854.930000</v>
+        <v>2854.93</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3717.450000</v>
+        <v>-3717.45</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>38356.208081</v>
+        <v>38356.208080999997</v>
       </c>
       <c r="CD18" s="1">
-        <v>10.654502</v>
+        <v>10.654502000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>4263.610000</v>
+        <v>4263.6099999999997</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6090.030000</v>
+        <v>-6090.03</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>38181.471942</v>
+        <v>38181.471941999996</v>
       </c>
       <c r="B19" s="1">
         <v>10.605964</v>
       </c>
       <c r="C19" s="1">
-        <v>1250.940000</v>
+        <v>1250.94</v>
       </c>
       <c r="D19" s="1">
-        <v>-282.834000</v>
+        <v>-282.834</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>38192.258471</v>
+        <v>38192.258471000001</v>
       </c>
       <c r="G19" s="1">
-        <v>10.608961</v>
+        <v>10.608961000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>1273.510000</v>
+        <v>1273.51</v>
       </c>
       <c r="I19" s="1">
-        <v>-247.000000</v>
+        <v>-247</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>38202.709642</v>
+        <v>38202.709642000002</v>
       </c>
       <c r="L19" s="1">
-        <v>10.611864</v>
+        <v>10.611864000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>1307.380000</v>
+        <v>1307.3800000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-194.892000</v>
+        <v>-194.892</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>38213.327995</v>
@@ -4895,13 +5311,13 @@
         <v>10.614813</v>
       </c>
       <c r="R19" s="1">
-        <v>1320.180000</v>
+        <v>1320.18</v>
       </c>
       <c r="S19" s="1">
-        <v>-179.574000</v>
+        <v>-179.57400000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <v>38223.820366</v>
@@ -4910,617 +5326,617 @@
         <v>10.617728</v>
       </c>
       <c r="W19" s="1">
-        <v>1334.310000</v>
+        <v>1334.31</v>
       </c>
       <c r="X19" s="1">
-        <v>-168.495000</v>
+        <v>-168.495</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>38234.361378</v>
+        <v>38234.361378000001</v>
       </c>
       <c r="AA19" s="1">
         <v>10.620656</v>
       </c>
       <c r="AB19" s="1">
-        <v>1353.450000</v>
+        <v>1353.45</v>
       </c>
       <c r="AC19" s="1">
-        <v>-168.410000</v>
+        <v>-168.41</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>38244.851266</v>
+        <v>38244.851265999998</v>
       </c>
       <c r="AF19" s="1">
-        <v>10.623570</v>
+        <v>10.623570000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1367.240000</v>
+        <v>1367.24</v>
       </c>
       <c r="AH19" s="1">
-        <v>-178.740000</v>
+        <v>-178.74</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>38255.345587</v>
+        <v>38255.345587000003</v>
       </c>
       <c r="AK19" s="1">
-        <v>10.626485</v>
+        <v>10.626485000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>1388.650000</v>
+        <v>1388.65</v>
       </c>
       <c r="AM19" s="1">
-        <v>-208.999000</v>
+        <v>-208.999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>38266.632585</v>
+        <v>38266.632584999999</v>
       </c>
       <c r="AP19" s="1">
-        <v>10.629620</v>
+        <v>10.629619999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1410.680000</v>
+        <v>1410.68</v>
       </c>
       <c r="AR19" s="1">
-        <v>-252.971000</v>
+        <v>-252.971</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>38277.672006</v>
+        <v>38277.672006000001</v>
       </c>
       <c r="AU19" s="1">
-        <v>10.632687</v>
+        <v>10.632687000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>1435.440000</v>
+        <v>1435.44</v>
       </c>
       <c r="AW19" s="1">
-        <v>-313.116000</v>
+        <v>-313.11599999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>38288.637330</v>
+        <v>38288.637329999998</v>
       </c>
       <c r="AZ19" s="1">
         <v>10.635733</v>
       </c>
       <c r="BA19" s="1">
-        <v>1454.820000</v>
+        <v>1454.82</v>
       </c>
       <c r="BB19" s="1">
-        <v>-365.260000</v>
+        <v>-365.26</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>38299.945882</v>
       </c>
       <c r="BE19" s="1">
-        <v>10.638874</v>
+        <v>10.638873999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1539.820000</v>
+        <v>1539.82</v>
       </c>
       <c r="BG19" s="1">
-        <v>-614.238000</v>
+        <v>-614.23800000000006</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>38310.890075</v>
+        <v>38310.890075000003</v>
       </c>
       <c r="BJ19" s="1">
         <v>10.641914</v>
       </c>
       <c r="BK19" s="1">
-        <v>1693.250000</v>
+        <v>1693.25</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1061.320000</v>
+        <v>-1061.32</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>38321.818956</v>
+        <v>38321.818956000003</v>
       </c>
       <c r="BO19" s="1">
-        <v>10.644950</v>
+        <v>10.64495</v>
       </c>
       <c r="BP19" s="1">
-        <v>1986.040000</v>
+        <v>1986.04</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1837.400000</v>
+        <v>-1837.4</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>38333.304781</v>
+        <v>38333.304780999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>10.648140</v>
+        <v>10.64814</v>
       </c>
       <c r="BU19" s="1">
-        <v>2369.550000</v>
+        <v>2369.5500000000002</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2734.110000</v>
+        <v>-2734.11</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>38344.106654</v>
+        <v>38344.106654000003</v>
       </c>
       <c r="BY19" s="1">
-        <v>10.651141</v>
+        <v>10.651141000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2854.900000</v>
+        <v>2854.9</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3717.470000</v>
+        <v>-3717.47</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>38356.747198</v>
+        <v>38356.747197999997</v>
       </c>
       <c r="CD19" s="1">
         <v>10.654652</v>
       </c>
       <c r="CE19" s="1">
-        <v>4287.850000</v>
+        <v>4287.8500000000004</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6097.990000</v>
+        <v>-6097.99</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>38182.124180</v>
+        <v>38182.124179999999</v>
       </c>
       <c r="B20" s="1">
-        <v>10.606146</v>
+        <v>10.606146000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>1251.290000</v>
+        <v>1251.29</v>
       </c>
       <c r="D20" s="1">
-        <v>-282.574000</v>
+        <v>-282.57400000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>38192.616552</v>
       </c>
       <c r="G20" s="1">
-        <v>10.609060</v>
+        <v>10.609059999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>1273.440000</v>
+        <v>1273.44</v>
       </c>
       <c r="I20" s="1">
-        <v>-247.461000</v>
+        <v>-247.46100000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>38203.091570</v>
+        <v>38203.091569999997</v>
       </c>
       <c r="L20" s="1">
-        <v>10.611970</v>
+        <v>10.611969999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>1307.580000</v>
+        <v>1307.58</v>
       </c>
       <c r="N20" s="1">
-        <v>-194.205000</v>
+        <v>-194.20500000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>38213.675723</v>
       </c>
       <c r="Q20" s="1">
-        <v>10.614910</v>
+        <v>10.61491</v>
       </c>
       <c r="R20" s="1">
-        <v>1320.120000</v>
+        <v>1320.12</v>
       </c>
       <c r="S20" s="1">
-        <v>-179.464000</v>
+        <v>-179.464</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>38224.163632</v>
+        <v>38224.163632000003</v>
       </c>
       <c r="V20" s="1">
         <v>10.617823</v>
       </c>
       <c r="W20" s="1">
-        <v>1334.460000</v>
+        <v>1334.46</v>
       </c>
       <c r="X20" s="1">
-        <v>-168.591000</v>
+        <v>-168.59100000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>38234.703583</v>
+        <v>38234.703583000002</v>
       </c>
       <c r="AA20" s="1">
         <v>10.620751</v>
       </c>
       <c r="AB20" s="1">
-        <v>1353.390000</v>
+        <v>1353.39</v>
       </c>
       <c r="AC20" s="1">
-        <v>-168.439000</v>
+        <v>-168.43899999999999</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>38245.265393</v>
+        <v>38245.265393000001</v>
       </c>
       <c r="AF20" s="1">
         <v>10.623685</v>
       </c>
       <c r="AG20" s="1">
-        <v>1367.250000</v>
+        <v>1367.25</v>
       </c>
       <c r="AH20" s="1">
-        <v>-178.773000</v>
+        <v>-178.773</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>38255.767716</v>
+        <v>38255.767716000002</v>
       </c>
       <c r="AK20" s="1">
         <v>10.626602</v>
       </c>
       <c r="AL20" s="1">
-        <v>1388.650000</v>
+        <v>1388.65</v>
       </c>
       <c r="AM20" s="1">
-        <v>-209.044000</v>
+        <v>-209.04400000000001</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>38266.927668</v>
+        <v>38266.927667999997</v>
       </c>
       <c r="AP20" s="1">
         <v>10.629702</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1410.710000</v>
+        <v>1410.71</v>
       </c>
       <c r="AR20" s="1">
-        <v>-252.998000</v>
+        <v>-252.99799999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>38277.967623</v>
+        <v>38277.967622999997</v>
       </c>
       <c r="AU20" s="1">
         <v>10.632769</v>
       </c>
       <c r="AV20" s="1">
-        <v>1435.440000</v>
+        <v>1435.44</v>
       </c>
       <c r="AW20" s="1">
-        <v>-313.085000</v>
+        <v>-313.08499999999998</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>38288.999671</v>
+        <v>38288.999670999998</v>
       </c>
       <c r="AZ20" s="1">
         <v>10.635833</v>
       </c>
       <c r="BA20" s="1">
-        <v>1454.790000</v>
+        <v>1454.79</v>
       </c>
       <c r="BB20" s="1">
-        <v>-365.301000</v>
+        <v>-365.30099999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>38300.310410</v>
+        <v>38300.310409999998</v>
       </c>
       <c r="BE20" s="1">
         <v>10.638975</v>
       </c>
       <c r="BF20" s="1">
-        <v>1539.820000</v>
+        <v>1539.82</v>
       </c>
       <c r="BG20" s="1">
-        <v>-614.163000</v>
+        <v>-614.16300000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>38311.278464</v>
+        <v>38311.278464000003</v>
       </c>
       <c r="BJ20" s="1">
-        <v>10.642022</v>
+        <v>10.642022000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1693.260000</v>
+        <v>1693.26</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1061.340000</v>
+        <v>-1061.3399999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>38322.632395</v>
+        <v>38322.632395000001</v>
       </c>
       <c r="BO20" s="1">
-        <v>10.645176</v>
+        <v>10.645175999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1986.120000</v>
+        <v>1986.12</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1837.480000</v>
+        <v>-1837.48</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>38333.731865</v>
+        <v>38333.731865000002</v>
       </c>
       <c r="BT20" s="1">
-        <v>10.648259</v>
+        <v>10.648258999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>2369.880000</v>
+        <v>2369.88</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2733.920000</v>
+        <v>-2733.92</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>38344.553586</v>
+        <v>38344.553586000002</v>
       </c>
       <c r="BY20" s="1">
         <v>10.651265</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2854.370000</v>
+        <v>2854.37</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3717.360000</v>
+        <v>-3717.36</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>38357.284894</v>
+        <v>38357.284893999997</v>
       </c>
       <c r="CD20" s="1">
-        <v>10.654801</v>
+        <v>10.654801000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>4273.710000</v>
+        <v>4273.71</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6081.890000</v>
+        <v>-6081.89</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>38182.493204</v>
+        <v>38182.493203999999</v>
       </c>
       <c r="B21" s="1">
-        <v>10.606248</v>
+        <v>10.606248000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>1250.800000</v>
+        <v>1250.8</v>
       </c>
       <c r="D21" s="1">
-        <v>-282.846000</v>
+        <v>-282.846</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>38192.972678</v>
+        <v>38192.972677999998</v>
       </c>
       <c r="G21" s="1">
         <v>10.609159</v>
       </c>
       <c r="H21" s="1">
-        <v>1273.580000</v>
+        <v>1273.58</v>
       </c>
       <c r="I21" s="1">
-        <v>-246.178000</v>
+        <v>-246.178</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>38203.441768</v>
+        <v>38203.441767999997</v>
       </c>
       <c r="L21" s="1">
         <v>10.612067</v>
       </c>
       <c r="M21" s="1">
-        <v>1307.690000</v>
+        <v>1307.69</v>
       </c>
       <c r="N21" s="1">
-        <v>-194.381000</v>
+        <v>-194.381</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>38214.025406</v>
+        <v>38214.025406000001</v>
       </c>
       <c r="Q21" s="1">
         <v>10.615007</v>
       </c>
       <c r="R21" s="1">
-        <v>1320.060000</v>
+        <v>1320.06</v>
       </c>
       <c r="S21" s="1">
-        <v>-179.534000</v>
+        <v>-179.53399999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>38224.506828</v>
+        <v>38224.506827999998</v>
       </c>
       <c r="V21" s="1">
-        <v>10.617919</v>
+        <v>10.617919000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>1334.490000</v>
+        <v>1334.49</v>
       </c>
       <c r="X21" s="1">
-        <v>-168.652000</v>
+        <v>-168.65199999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>38235.122702</v>
+        <v>38235.122702000001</v>
       </c>
       <c r="AA21" s="1">
-        <v>10.620867</v>
+        <v>10.620867000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>1353.540000</v>
+        <v>1353.54</v>
       </c>
       <c r="AC21" s="1">
-        <v>-168.690000</v>
+        <v>-168.69</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>38245.540177</v>
+        <v>38245.540177000003</v>
       </c>
       <c r="AF21" s="1">
         <v>10.623761</v>
       </c>
       <c r="AG21" s="1">
-        <v>1367.210000</v>
+        <v>1367.21</v>
       </c>
       <c r="AH21" s="1">
-        <v>-178.775000</v>
+        <v>-178.77500000000001</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>38256.054405</v>
+        <v>38256.054405000003</v>
       </c>
       <c r="AK21" s="1">
-        <v>10.626682</v>
+        <v>10.626682000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>1388.690000</v>
+        <v>1388.69</v>
       </c>
       <c r="AM21" s="1">
-        <v>-209.077000</v>
+        <v>-209.077</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>38267.289749</v>
+        <v>38267.289749000003</v>
       </c>
       <c r="AP21" s="1">
-        <v>10.629803</v>
+        <v>10.629803000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1410.680000</v>
+        <v>1410.68</v>
       </c>
       <c r="AR21" s="1">
-        <v>-252.976000</v>
+        <v>-252.976</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>38278.331686</v>
+        <v>38278.331685999998</v>
       </c>
       <c r="AU21" s="1">
-        <v>10.632870</v>
+        <v>10.63287</v>
       </c>
       <c r="AV21" s="1">
-        <v>1435.430000</v>
+        <v>1435.43</v>
       </c>
       <c r="AW21" s="1">
-        <v>-313.050000</v>
+        <v>-313.05</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>38289.356758</v>
+        <v>38289.356758000002</v>
       </c>
       <c r="AZ21" s="1">
         <v>10.635932</v>
       </c>
       <c r="BA21" s="1">
-        <v>1454.800000</v>
+        <v>1454.8</v>
       </c>
       <c r="BB21" s="1">
-        <v>-365.259000</v>
+        <v>-365.25900000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>38301.029639</v>
@@ -5529,91 +5945,91 @@
         <v>10.639175</v>
       </c>
       <c r="BF21" s="1">
-        <v>1539.830000</v>
+        <v>1539.83</v>
       </c>
       <c r="BG21" s="1">
-        <v>-614.211000</v>
+        <v>-614.21100000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>38312.031368</v>
+        <v>38312.031368000004</v>
       </c>
       <c r="BJ21" s="1">
-        <v>10.642231</v>
+        <v>10.642231000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1693.330000</v>
+        <v>1693.33</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1061.340000</v>
+        <v>-1061.3399999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>38323.053001</v>
       </c>
       <c r="BO21" s="1">
-        <v>10.645293</v>
+        <v>10.645293000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1986.120000</v>
+        <v>1986.12</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1837.290000</v>
+        <v>-1837.29</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>38334.141564</v>
+        <v>38334.141563999998</v>
       </c>
       <c r="BT21" s="1">
-        <v>10.648373</v>
+        <v>10.648372999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>2369.870000</v>
+        <v>2369.87</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2733.640000</v>
+        <v>-2733.64</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>38344.975151</v>
+        <v>38344.975150999999</v>
       </c>
       <c r="BY21" s="1">
         <v>10.651382</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2854.760000</v>
+        <v>2854.76</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3717.720000</v>
+        <v>-3717.72</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>38358.140957</v>
+        <v>38358.140957000003</v>
       </c>
       <c r="CD21" s="1">
         <v>10.655039</v>
       </c>
       <c r="CE21" s="1">
-        <v>4285.690000</v>
+        <v>4285.6899999999996</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6092.350000</v>
+        <v>-6092.35</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>38182.837925</v>
       </c>
@@ -5621,208 +6037,208 @@
         <v>10.606344</v>
       </c>
       <c r="C22" s="1">
-        <v>1251.130000</v>
+        <v>1251.1300000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>-282.833000</v>
+        <v>-282.83300000000003</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>38193.315414</v>
+        <v>38193.315413999997</v>
       </c>
       <c r="G22" s="1">
         <v>10.609254</v>
       </c>
       <c r="H22" s="1">
-        <v>1273.630000</v>
+        <v>1273.6300000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>-246.702000</v>
+        <v>-246.702</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>38203.788937</v>
+        <v>38203.788936999998</v>
       </c>
       <c r="L22" s="1">
         <v>10.612164</v>
       </c>
       <c r="M22" s="1">
-        <v>1307.440000</v>
+        <v>1307.44</v>
       </c>
       <c r="N22" s="1">
-        <v>-194.464000</v>
+        <v>-194.464</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>38214.445513</v>
+        <v>38214.445512999999</v>
       </c>
       <c r="Q22" s="1">
         <v>10.615124</v>
       </c>
       <c r="R22" s="1">
-        <v>1320.090000</v>
+        <v>1320.09</v>
       </c>
       <c r="S22" s="1">
-        <v>-179.476000</v>
+        <v>-179.476</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>38224.985499</v>
+        <v>38224.985499000002</v>
       </c>
       <c r="V22" s="1">
         <v>10.618052</v>
       </c>
       <c r="W22" s="1">
-        <v>1334.380000</v>
+        <v>1334.38</v>
       </c>
       <c r="X22" s="1">
-        <v>-168.517000</v>
+        <v>-168.517</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>38235.414877</v>
+        <v>38235.414877000003</v>
       </c>
       <c r="AA22" s="1">
         <v>10.620949</v>
       </c>
       <c r="AB22" s="1">
-        <v>1353.660000</v>
+        <v>1353.66</v>
       </c>
       <c r="AC22" s="1">
-        <v>-168.416000</v>
+        <v>-168.416</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>38245.882913</v>
+        <v>38245.882913000001</v>
       </c>
       <c r="AF22" s="1">
         <v>10.623856</v>
       </c>
       <c r="AG22" s="1">
-        <v>1367.270000</v>
+        <v>1367.27</v>
       </c>
       <c r="AH22" s="1">
-        <v>-178.735000</v>
+        <v>-178.73500000000001</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>38256.405043</v>
+        <v>38256.405042999999</v>
       </c>
       <c r="AK22" s="1">
-        <v>10.626779</v>
+        <v>10.626779000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>1388.670000</v>
+        <v>1388.67</v>
       </c>
       <c r="AM22" s="1">
-        <v>-209.027000</v>
+        <v>-209.02699999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>38267.648355</v>
+        <v>38267.648354999998</v>
       </c>
       <c r="AP22" s="1">
         <v>10.629902</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1410.680000</v>
+        <v>1410.68</v>
       </c>
       <c r="AR22" s="1">
-        <v>-252.977000</v>
+        <v>-252.977</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>38278.699221</v>
+        <v>38278.699221000003</v>
       </c>
       <c r="AU22" s="1">
-        <v>10.632972</v>
+        <v>10.632972000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1435.470000</v>
+        <v>1435.47</v>
       </c>
       <c r="AW22" s="1">
-        <v>-313.118000</v>
+        <v>-313.11799999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>38290.082406</v>
+        <v>38290.082406000001</v>
       </c>
       <c r="AZ22" s="1">
         <v>10.636134</v>
       </c>
       <c r="BA22" s="1">
-        <v>1454.790000</v>
+        <v>1454.79</v>
       </c>
       <c r="BB22" s="1">
-        <v>-365.298000</v>
+        <v>-365.298</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>38301.392680</v>
+        <v>38301.392679999997</v>
       </c>
       <c r="BE22" s="1">
-        <v>10.639276</v>
+        <v>10.639276000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1539.820000</v>
+        <v>1539.82</v>
       </c>
       <c r="BG22" s="1">
-        <v>-614.213000</v>
+        <v>-614.21299999999997</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>38312.434152</v>
+        <v>38312.434152000002</v>
       </c>
       <c r="BJ22" s="1">
         <v>10.642343</v>
       </c>
       <c r="BK22" s="1">
-        <v>1693.240000</v>
+        <v>1693.24</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1061.210000</v>
+        <v>-1061.21</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>38323.446325</v>
+        <v>38323.446324999997</v>
       </c>
       <c r="BO22" s="1">
-        <v>10.645402</v>
+        <v>10.645402000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1986.130000</v>
+        <v>1986.13</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1837.380000</v>
+        <v>-1837.38</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>38334.876139</v>
@@ -5831,210 +6247,210 @@
         <v>10.648577</v>
       </c>
       <c r="BU22" s="1">
-        <v>2370.160000</v>
+        <v>2370.16</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2733.580000</v>
+        <v>-2733.58</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>38345.703772</v>
+        <v>38345.703772000001</v>
       </c>
       <c r="BY22" s="1">
         <v>10.651584</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2854.640000</v>
+        <v>2854.64</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3717.730000</v>
+        <v>-3717.73</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>38358.366635</v>
+        <v>38358.366634999998</v>
       </c>
       <c r="CD22" s="1">
-        <v>10.655102</v>
+        <v>10.655101999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>4287.040000</v>
+        <v>4287.04</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6093.900000</v>
+        <v>-6093.9</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>38183.179172</v>
+        <v>38183.179171999996</v>
       </c>
       <c r="B23" s="1">
         <v>10.606439</v>
       </c>
       <c r="C23" s="1">
-        <v>1251.030000</v>
+        <v>1251.03</v>
       </c>
       <c r="D23" s="1">
-        <v>-282.545000</v>
+        <v>-282.54500000000002</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>38193.735561</v>
+        <v>38193.735561000001</v>
       </c>
       <c r="G23" s="1">
-        <v>10.609371</v>
+        <v>10.609370999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>1273.340000</v>
+        <v>1273.3399999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-246.837000</v>
+        <v>-246.83699999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>38204.210568</v>
+        <v>38204.210568000002</v>
       </c>
       <c r="L23" s="1">
-        <v>10.612281</v>
+        <v>10.612280999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>1307.580000</v>
+        <v>1307.58</v>
       </c>
       <c r="N23" s="1">
-        <v>-194.426000</v>
+        <v>-194.42599999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>38214.735145</v>
+        <v>38214.735144999999</v>
       </c>
       <c r="Q23" s="1">
         <v>10.615204</v>
       </c>
       <c r="R23" s="1">
-        <v>1320.090000</v>
+        <v>1320.09</v>
       </c>
       <c r="S23" s="1">
-        <v>-179.420000</v>
+        <v>-179.42</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>38225.219084</v>
+        <v>38225.219083999997</v>
       </c>
       <c r="V23" s="1">
-        <v>10.618116</v>
+        <v>10.618116000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>1334.470000</v>
+        <v>1334.47</v>
       </c>
       <c r="X23" s="1">
-        <v>-168.518000</v>
+        <v>-168.518</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>38235.767005</v>
+        <v>38235.767005000002</v>
       </c>
       <c r="AA23" s="1">
         <v>10.621046</v>
       </c>
       <c r="AB23" s="1">
-        <v>1353.490000</v>
+        <v>1353.49</v>
       </c>
       <c r="AC23" s="1">
-        <v>-168.561000</v>
+        <v>-168.56100000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>38246.227137</v>
+        <v>38246.227137000002</v>
       </c>
       <c r="AF23" s="1">
-        <v>10.623952</v>
+        <v>10.623951999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>1367.220000</v>
+        <v>1367.22</v>
       </c>
       <c r="AH23" s="1">
-        <v>-178.798000</v>
+        <v>-178.798</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>38256.750755</v>
+        <v>38256.750755000001</v>
       </c>
       <c r="AK23" s="1">
         <v>10.626875</v>
       </c>
       <c r="AL23" s="1">
-        <v>1388.690000</v>
+        <v>1388.69</v>
       </c>
       <c r="AM23" s="1">
-        <v>-209.070000</v>
+        <v>-209.07</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>38268.375988</v>
       </c>
       <c r="AP23" s="1">
-        <v>10.630104</v>
+        <v>10.630103999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1410.710000</v>
+        <v>1410.71</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.021000</v>
+        <v>-253.02099999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>38279.425406</v>
+        <v>38279.425406000002</v>
       </c>
       <c r="AU23" s="1">
         <v>10.633174</v>
       </c>
       <c r="AV23" s="1">
-        <v>1435.420000</v>
+        <v>1435.42</v>
       </c>
       <c r="AW23" s="1">
-        <v>-313.071000</v>
+        <v>-313.07100000000003</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>38290.456389</v>
+        <v>38290.456388999999</v>
       </c>
       <c r="AZ23" s="1">
-        <v>10.636238</v>
+        <v>10.636238000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1454.830000</v>
+        <v>1454.83</v>
       </c>
       <c r="BB23" s="1">
-        <v>-365.248000</v>
+        <v>-365.24799999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>38301.752774</v>
@@ -6043,422 +6459,422 @@
         <v>10.639376</v>
       </c>
       <c r="BF23" s="1">
-        <v>1539.790000</v>
+        <v>1539.79</v>
       </c>
       <c r="BG23" s="1">
-        <v>-614.196000</v>
+        <v>-614.19600000000003</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>38312.809591</v>
+        <v>38312.809590999997</v>
       </c>
       <c r="BJ23" s="1">
-        <v>10.642447</v>
+        <v>10.642447000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1693.290000</v>
+        <v>1693.29</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1061.290000</v>
+        <v>-1061.29</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>38324.179386</v>
+        <v>38324.179386000003</v>
       </c>
       <c r="BO23" s="1">
         <v>10.645605</v>
       </c>
       <c r="BP23" s="1">
-        <v>1986.050000</v>
+        <v>1986.05</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1837.330000</v>
+        <v>-1837.33</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>38334.991706</v>
+        <v>38334.991706000001</v>
       </c>
       <c r="BT23" s="1">
         <v>10.648609</v>
       </c>
       <c r="BU23" s="1">
-        <v>2370.130000</v>
+        <v>2370.13</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2733.060000</v>
+        <v>-2733.06</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>38345.878892</v>
+        <v>38345.878892000001</v>
       </c>
       <c r="BY23" s="1">
         <v>10.651633</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2854.960000</v>
+        <v>2854.96</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3716.650000</v>
+        <v>-3716.65</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>38358.882970</v>
+        <v>38358.882969999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>10.655245</v>
+        <v>10.655245000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>4277.920000</v>
+        <v>4277.92</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6078.420000</v>
+        <v>-6078.42</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>38183.599778</v>
+        <v>38183.599778000003</v>
       </c>
       <c r="B24" s="1">
         <v>10.606555</v>
       </c>
       <c r="C24" s="1">
-        <v>1251.160000</v>
+        <v>1251.1600000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>-282.408000</v>
+        <v>-282.40800000000002</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>38194.024724</v>
+        <v>38194.024724000003</v>
       </c>
       <c r="G24" s="1">
         <v>10.609451</v>
       </c>
       <c r="H24" s="1">
-        <v>1273.170000</v>
+        <v>1273.17</v>
       </c>
       <c r="I24" s="1">
-        <v>-247.104000</v>
+        <v>-247.10400000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>38204.503206</v>
+        <v>38204.503206000001</v>
       </c>
       <c r="L24" s="1">
-        <v>10.612362</v>
+        <v>10.612361999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>1307.510000</v>
+        <v>1307.51</v>
       </c>
       <c r="N24" s="1">
-        <v>-194.038000</v>
+        <v>-194.03800000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>38215.083337</v>
+        <v>38215.083336999996</v>
       </c>
       <c r="Q24" s="1">
-        <v>10.615301</v>
+        <v>10.615301000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>1320.080000</v>
+        <v>1320.08</v>
       </c>
       <c r="S24" s="1">
-        <v>-179.352000</v>
+        <v>-179.352</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>38225.561819</v>
+        <v>38225.561819000002</v>
       </c>
       <c r="V24" s="1">
         <v>10.618212</v>
       </c>
       <c r="W24" s="1">
-        <v>1334.450000</v>
+        <v>1334.45</v>
       </c>
       <c r="X24" s="1">
-        <v>-168.473000</v>
+        <v>-168.47300000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>38236.115725</v>
+        <v>38236.115725000003</v>
       </c>
       <c r="AA24" s="1">
         <v>10.621143</v>
       </c>
       <c r="AB24" s="1">
-        <v>1353.430000</v>
+        <v>1353.43</v>
       </c>
       <c r="AC24" s="1">
-        <v>-168.458000</v>
+        <v>-168.458</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>38246.913103</v>
+        <v>38246.913102999999</v>
       </c>
       <c r="AF24" s="1">
         <v>10.624143</v>
       </c>
       <c r="AG24" s="1">
-        <v>1367.280000</v>
+        <v>1367.28</v>
       </c>
       <c r="AH24" s="1">
-        <v>-178.792000</v>
+        <v>-178.792</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>38257.447137</v>
+        <v>38257.447137000003</v>
       </c>
       <c r="AK24" s="1">
-        <v>10.627069</v>
+        <v>10.627069000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>1388.710000</v>
+        <v>1388.71</v>
       </c>
       <c r="AM24" s="1">
-        <v>-209.033000</v>
+        <v>-209.03299999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>38268.752945</v>
       </c>
       <c r="AP24" s="1">
-        <v>10.630209</v>
+        <v>10.630209000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1410.690000</v>
+        <v>1410.69</v>
       </c>
       <c r="AR24" s="1">
-        <v>-252.985000</v>
+        <v>-252.98500000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>38279.818692</v>
+        <v>38279.818692000001</v>
       </c>
       <c r="AU24" s="1">
         <v>10.633283</v>
       </c>
       <c r="AV24" s="1">
-        <v>1435.430000</v>
+        <v>1435.43</v>
       </c>
       <c r="AW24" s="1">
-        <v>-313.077000</v>
+        <v>-313.077</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>38290.835365</v>
+        <v>38290.835364999999</v>
       </c>
       <c r="AZ24" s="1">
         <v>10.636343</v>
       </c>
       <c r="BA24" s="1">
-        <v>1454.770000</v>
+        <v>1454.77</v>
       </c>
       <c r="BB24" s="1">
-        <v>-365.293000</v>
+        <v>-365.29300000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>38302.419547</v>
+        <v>38302.419546999998</v>
       </c>
       <c r="BE24" s="1">
         <v>10.639561</v>
       </c>
       <c r="BF24" s="1">
-        <v>1539.800000</v>
+        <v>1539.8</v>
       </c>
       <c r="BG24" s="1">
-        <v>-614.192000</v>
+        <v>-614.19200000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>38313.491627</v>
+        <v>38313.491627000003</v>
       </c>
       <c r="BJ24" s="1">
-        <v>10.642637</v>
+        <v>10.642637000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1693.300000</v>
+        <v>1693.3</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1061.260000</v>
+        <v>-1061.26</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>38324.687785</v>
+        <v>38324.687785000002</v>
       </c>
       <c r="BO24" s="1">
         <v>10.645747</v>
       </c>
       <c r="BP24" s="1">
-        <v>1986.240000</v>
+        <v>1986.24</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1837.350000</v>
+        <v>-1837.35</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>38335.413273</v>
+        <v>38335.413272999998</v>
       </c>
       <c r="BT24" s="1">
         <v>10.648726</v>
       </c>
       <c r="BU24" s="1">
-        <v>2370.220000</v>
+        <v>2370.2199999999998</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2732.740000</v>
+        <v>-2732.74</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>38346.304955</v>
       </c>
       <c r="BY24" s="1">
-        <v>10.651751</v>
+        <v>10.651751000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2855.310000</v>
+        <v>2855.31</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3716.830000</v>
+        <v>-3716.83</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>38359.402283</v>
+        <v>38359.402283000003</v>
       </c>
       <c r="CD24" s="1">
-        <v>10.655390</v>
+        <v>10.655390000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>4270.290000</v>
+        <v>4270.29</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6097.560000</v>
+        <v>-6097.56</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>38183.881042</v>
+        <v>38183.881042000001</v>
       </c>
       <c r="B25" s="1">
         <v>10.606634</v>
       </c>
       <c r="C25" s="1">
-        <v>1251.420000</v>
+        <v>1251.42</v>
       </c>
       <c r="D25" s="1">
-        <v>-282.557000</v>
+        <v>-282.55700000000002</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>38194.367924</v>
+        <v>38194.367923999998</v>
       </c>
       <c r="G25" s="1">
-        <v>10.609547</v>
+        <v>10.609546999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>1272.880000</v>
+        <v>1272.8800000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-246.009000</v>
+        <v>-246.00899999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>38204.846935</v>
+        <v>38204.846935000001</v>
       </c>
       <c r="L25" s="1">
-        <v>10.612457</v>
+        <v>10.612456999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>1307.380000</v>
+        <v>1307.3800000000001</v>
       </c>
       <c r="N25" s="1">
-        <v>-195.144000</v>
+        <v>-195.14400000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>38215.431033</v>
+        <v>38215.431033000001</v>
       </c>
       <c r="Q25" s="1">
-        <v>10.615398</v>
+        <v>10.615398000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>1320.140000</v>
+        <v>1320.14</v>
       </c>
       <c r="S25" s="1">
-        <v>-179.595000</v>
+        <v>-179.595</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>38226.249771</v>
+        <v>38226.249771000003</v>
       </c>
       <c r="V25" s="1">
-        <v>10.618403</v>
+        <v>10.618403000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>1334.390000</v>
+        <v>1334.39</v>
       </c>
       <c r="X25" s="1">
-        <v>-168.549000</v>
+        <v>-168.54900000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>38236.812112</v>
@@ -6467,13 +6883,13 @@
         <v>10.621337</v>
       </c>
       <c r="AB25" s="1">
-        <v>1353.300000</v>
+        <v>1353.3</v>
       </c>
       <c r="AC25" s="1">
-        <v>-168.515000</v>
+        <v>-168.51499999999999</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>38247.258318</v>
@@ -6482,166 +6898,166 @@
         <v>10.624238</v>
       </c>
       <c r="AG25" s="1">
-        <v>1367.270000</v>
+        <v>1367.27</v>
       </c>
       <c r="AH25" s="1">
-        <v>-178.731000</v>
+        <v>-178.73099999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>38257.797840</v>
+        <v>38257.797839999999</v>
       </c>
       <c r="AK25" s="1">
-        <v>10.627166</v>
+        <v>10.627166000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>1388.710000</v>
+        <v>1388.71</v>
       </c>
       <c r="AM25" s="1">
-        <v>-209.035000</v>
+        <v>-209.035</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>38269.113537</v>
+        <v>38269.113536999997</v>
       </c>
       <c r="AP25" s="1">
         <v>10.630309</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1410.680000</v>
+        <v>1410.68</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.002000</v>
+        <v>-253.00200000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>38280.490771</v>
+        <v>38280.490770999997</v>
       </c>
       <c r="AU25" s="1">
-        <v>10.633470</v>
+        <v>10.633470000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>1435.460000</v>
+        <v>1435.46</v>
       </c>
       <c r="AW25" s="1">
-        <v>-313.108000</v>
+        <v>-313.108</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>38291.503796</v>
+        <v>38291.503795999997</v>
       </c>
       <c r="AZ25" s="1">
-        <v>10.636529</v>
+        <v>10.636528999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1454.810000</v>
+        <v>1454.81</v>
       </c>
       <c r="BB25" s="1">
-        <v>-365.258000</v>
+        <v>-365.25799999999998</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>38302.866294</v>
+        <v>38302.866293999999</v>
       </c>
       <c r="BE25" s="1">
         <v>10.639685</v>
       </c>
       <c r="BF25" s="1">
-        <v>1539.810000</v>
+        <v>1539.81</v>
       </c>
       <c r="BG25" s="1">
-        <v>-614.193000</v>
+        <v>-614.19299999999998</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>38313.966263</v>
+        <v>38313.966263000002</v>
       </c>
       <c r="BJ25" s="1">
         <v>10.642768</v>
       </c>
       <c r="BK25" s="1">
-        <v>1693.300000</v>
+        <v>1693.3</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1061.290000</v>
+        <v>-1061.29</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>38325.109385</v>
+        <v>38325.109385000003</v>
       </c>
       <c r="BO25" s="1">
         <v>10.645864</v>
       </c>
       <c r="BP25" s="1">
-        <v>1986.040000</v>
+        <v>1986.04</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1837.370000</v>
+        <v>-1837.37</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>38335.846313</v>
+        <v>38335.846313000002</v>
       </c>
       <c r="BT25" s="1">
-        <v>10.648846</v>
+        <v>10.648846000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>2370.700000</v>
+        <v>2370.6999999999998</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2732.920000</v>
+        <v>-2732.92</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>38346.752843</v>
+        <v>38346.752843000002</v>
       </c>
       <c r="BY25" s="1">
         <v>10.651876</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2854.020000</v>
+        <v>2854.02</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3716.720000</v>
+        <v>-3716.72</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>38359.938955</v>
+        <v>38359.938954999998</v>
       </c>
       <c r="CD25" s="1">
-        <v>10.655539</v>
+        <v>10.655538999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>4288.970000</v>
+        <v>4288.97</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6090.230000</v>
+        <v>-6090.23</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>38184.221265</v>
       </c>
@@ -6649,13 +7065,13 @@
         <v>10.606728</v>
       </c>
       <c r="C26" s="1">
-        <v>1251.300000</v>
+        <v>1251.3</v>
       </c>
       <c r="D26" s="1">
-        <v>-282.728000</v>
+        <v>-282.72800000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>38194.715655</v>
@@ -6664,28 +7080,28 @@
         <v>10.609643</v>
       </c>
       <c r="H26" s="1">
-        <v>1273.700000</v>
+        <v>1273.7</v>
       </c>
       <c r="I26" s="1">
-        <v>-246.593000</v>
+        <v>-246.59299999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>38205.194598</v>
+        <v>38205.194598000002</v>
       </c>
       <c r="L26" s="1">
-        <v>10.612554</v>
+        <v>10.612553999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>1307.430000</v>
+        <v>1307.43</v>
       </c>
       <c r="N26" s="1">
-        <v>-194.520000</v>
+        <v>-194.52</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>38216.127085</v>
@@ -6694,210 +7110,211 @@
         <v>10.615591</v>
       </c>
       <c r="R26" s="1">
-        <v>1320.130000</v>
+        <v>1320.13</v>
       </c>
       <c r="S26" s="1">
-        <v>-179.533000</v>
+        <v>-179.53299999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>38226.591513</v>
+        <v>38226.591512999999</v>
       </c>
       <c r="V26" s="1">
-        <v>10.618498</v>
+        <v>10.618498000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>1334.430000</v>
+        <v>1334.43</v>
       </c>
       <c r="X26" s="1">
-        <v>-168.568000</v>
+        <v>-168.56800000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>38237.160300</v>
+        <v>38237.160300000003</v>
       </c>
       <c r="AA26" s="1">
         <v>10.621433</v>
       </c>
       <c r="AB26" s="1">
-        <v>1353.510000</v>
+        <v>1353.51</v>
       </c>
       <c r="AC26" s="1">
-        <v>-168.414000</v>
+        <v>-168.41399999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>38247.601055</v>
+        <v>38247.601054999999</v>
       </c>
       <c r="AF26" s="1">
-        <v>10.624334</v>
+        <v>10.624333999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>1367.230000</v>
+        <v>1367.23</v>
       </c>
       <c r="AH26" s="1">
-        <v>-178.743000</v>
+        <v>-178.74299999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>38258.144513</v>
+        <v>38258.144512999999</v>
       </c>
       <c r="AK26" s="1">
         <v>10.627262</v>
       </c>
       <c r="AL26" s="1">
-        <v>1388.690000</v>
+        <v>1388.69</v>
       </c>
       <c r="AM26" s="1">
-        <v>-209.069000</v>
+        <v>-209.06899999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>38269.787106</v>
+        <v>38269.787106000003</v>
       </c>
       <c r="AP26" s="1">
-        <v>10.630496</v>
+        <v>10.630496000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1410.690000</v>
+        <v>1410.69</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.001000</v>
+        <v>-253.001</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>38280.944125</v>
+        <v>38280.944125000002</v>
       </c>
       <c r="AU26" s="1">
-        <v>10.633596</v>
+        <v>10.633596000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>1435.440000</v>
+        <v>1435.44</v>
       </c>
       <c r="AW26" s="1">
-        <v>-313.065000</v>
+        <v>-313.065</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>38291.920390</v>
+        <v>38291.920389999999</v>
       </c>
       <c r="AZ26" s="1">
         <v>10.636645</v>
       </c>
       <c r="BA26" s="1">
-        <v>1454.810000</v>
+        <v>1454.81</v>
       </c>
       <c r="BB26" s="1">
-        <v>-365.273000</v>
+        <v>-365.27300000000002</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>38303.226421</v>
+        <v>38303.226420999999</v>
       </c>
       <c r="BE26" s="1">
         <v>10.639785</v>
       </c>
       <c r="BF26" s="1">
-        <v>1539.780000</v>
+        <v>1539.78</v>
       </c>
       <c r="BG26" s="1">
-        <v>-614.214000</v>
+        <v>-614.21400000000006</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>38314.388854</v>
+        <v>38314.388853999997</v>
       </c>
       <c r="BJ26" s="1">
-        <v>10.642886</v>
+        <v>10.642886000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1693.190000</v>
+        <v>1693.19</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1061.170000</v>
+        <v>-1061.17</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>38325.504695</v>
+        <v>38325.504695000003</v>
       </c>
       <c r="BO26" s="1">
-        <v>10.645974</v>
+        <v>10.645974000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1986.100000</v>
+        <v>1986.1</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1837.200000</v>
+        <v>-1837.2</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>38336.272345</v>
+        <v>38336.272344999998</v>
       </c>
       <c r="BT26" s="1">
         <v>10.648965</v>
       </c>
       <c r="BU26" s="1">
-        <v>2370.970000</v>
+        <v>2370.9699999999998</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2732.520000</v>
+        <v>-2732.52</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>38347.184330</v>
+        <v>38347.184329999996</v>
       </c>
       <c r="BY26" s="1">
         <v>10.651996</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2853.980000</v>
+        <v>2853.98</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3717.130000</v>
+        <v>-3717.13</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>38360.481578</v>
+        <v>38360.481577999999</v>
       </c>
       <c r="CD26" s="1">
-        <v>10.655689</v>
+        <v>10.655689000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>4264.240000</v>
+        <v>4264.24</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6085.270000</v>
+        <v>-6085.27</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>